--- a/AAII_Financials/Quarterly/CCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CCO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>CCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,218 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>745200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>653400</v>
+      </c>
+      <c r="F8" s="3">
         <v>698000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>587100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>747600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>663700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>712000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>598400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>728400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>644400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1215900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>544700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>722600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>669200</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>383200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>358200</v>
+      </c>
+      <c r="F9" s="3">
         <v>363000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>347800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>374800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>361700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>372900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>361300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>370600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>357900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>681200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>329700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>355800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>362300</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>362000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>295200</v>
+      </c>
+      <c r="F10" s="3">
         <v>335000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>239300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>372800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>302000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>339100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>237100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>357800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>286500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>534700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>215000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>366800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,8 +892,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +935,14 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,90 +982,108 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>101600</v>
+      </c>
+      <c r="F14" s="3">
         <v>5800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>5500</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>7800</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>858200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1600</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>77800</v>
+      </c>
+      <c r="E15" s="3">
+        <v>76200</v>
+      </c>
+      <c r="F15" s="3">
         <v>80200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>75100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>74700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>77400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>82800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>84100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>89100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>81100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>155800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>77500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>86000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>85800</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1096,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>631600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>702000</v>
+      </c>
+      <c r="F17" s="3">
         <v>621300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>583500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>631100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>612600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>618000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>608200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1487300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>616300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1108500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>524900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>471700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>608500</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>113600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="F18" s="3">
         <v>76700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>3600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>116500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>51100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>94000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-9800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-758900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>28100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>107400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>19800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>250900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>60700</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,213 +1209,245 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-9200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-12900</v>
       </c>
-      <c r="G20" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="J20" s="3">
         <v>-35400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>19600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>28400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>25700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>42600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>18200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-10400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>211400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>800</v>
+      </c>
+      <c r="F21" s="3">
         <v>147600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>78100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>178300</v>
       </c>
-      <c r="G21" s="3">
-        <v>123100</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>122700</v>
+      </c>
+      <c r="J21" s="3">
         <v>141400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>93900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-641400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>134900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>305800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>115600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>326400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>151700</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>88600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>106800</v>
+      </c>
+      <c r="F22" s="3">
         <v>108000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>114900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>96700</v>
       </c>
-      <c r="G22" s="3">
-        <v>97200</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>96800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
+        <v>96800</v>
+      </c>
+      <c r="K22" s="3">
         <v>97300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>96900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>95500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>187300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>92600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>93100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-182200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-40500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-111800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>6800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-51500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-38200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-87500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-827400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-41700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-37300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-54600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>147400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-27400</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>30100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-29100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>57800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-24500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>6900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>4800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>45400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-65100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>16300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-3400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-21800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>39100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1487,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-212400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-11400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-169600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>31300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-58400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-42900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-132800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-762300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-58000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-33900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-32700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>108300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-23800</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-215300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-10900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-164200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>25700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-65100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-50400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-128400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-769900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-64200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-38300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-30700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>101500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1628,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1524,26 +1645,26 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>228000</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>228000</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1554,8 +1675,14 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1722,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1769,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>26800</v>
+      </c>
+      <c r="F32" s="3">
         <v>9200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>12900</v>
       </c>
-      <c r="G32" s="3">
-        <v>5500</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J32" s="3">
         <v>35400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-19600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-28400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-25700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-42600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-18200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>10400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-215300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-10900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-164200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>25700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-65100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-50400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-128400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-541900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-64200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-38300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-30700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>101500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1910,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-215300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-10900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-164200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>25700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-65100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-50400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-128400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-541900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-64200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-38300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-30700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>101500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2032,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +2051,57 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>398900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>341800</v>
+      </c>
+      <c r="F41" s="3">
         <v>372500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>170500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>182500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>191100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>172300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>153200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>144100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>222400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>163100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>200600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>542000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>394300</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,49 +2141,61 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>709700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>662200</v>
+      </c>
+      <c r="F43" s="3">
         <v>656400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>636500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>706300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>654000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>638100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>635800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>659500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>633000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>633700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>560800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>593100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>627900</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,90 +2235,108 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>90900</v>
+      </c>
+      <c r="F45" s="3">
         <v>99800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>91900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>127000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>158300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>194000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>214600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>170600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>193800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>167500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>203200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>206400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>260700</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1201900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1094900</v>
+      </c>
+      <c r="F46" s="3">
         <v>1128700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>899000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1015800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1003500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1004300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1003700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>974200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1049200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>964200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>964600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1341400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1282800</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2135,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>154800</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>154800</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>154800</v>
@@ -2150,14 +2359,14 @@
         <v>154800</v>
       </c>
       <c r="J47" s="3">
+        <v>154800</v>
+      </c>
+      <c r="K47" s="3">
+        <v>154800</v>
+      </c>
+      <c r="L47" s="3">
         <v>212000</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
@@ -2167,90 +2376,108 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3096600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3071100</v>
+      </c>
+      <c r="F48" s="3">
         <v>3196500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3249000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1288900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1256000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1288700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1365100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1395000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1380400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1410300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1398800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1412800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1493300</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1996700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1986600</v>
+      </c>
+      <c r="F49" s="3">
         <v>2003500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1923200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1930000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1937200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1948400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1965100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1965100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1972900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1989000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1983200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1956800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2011700</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2517,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2564,61 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>98100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>114600</v>
+      </c>
+      <c r="F52" s="3">
         <v>99200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>99700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>132500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>128000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>124800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>126900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>124500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1178000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1053100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1039800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1007700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>887800</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2658,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6393300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6267100</v>
+      </c>
+      <c r="F54" s="3">
         <v>6428000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6325600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4522000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4479400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4521100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4615500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4670800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5580500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5416600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5386400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5718800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5675600</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2728,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,254 +2747,292 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>94600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>103000</v>
+      </c>
+      <c r="F57" s="3">
         <v>109600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>105000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>113700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>99300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>105400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>120600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>88000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>88000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>74200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>70600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>86900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>20300</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>9500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>6700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>7000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1065600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>982200</v>
+      </c>
+      <c r="F59" s="3">
         <v>1009300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>940900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>615900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>619100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>593200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>612800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>569000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>623000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>552700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>547400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>547900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>586000</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1180500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1105500</v>
+      </c>
+      <c r="F60" s="3">
         <v>1119200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1046100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>729800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>718800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>699000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>733900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>657500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>711600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>636300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>624700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>641700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>666800</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5108600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5111700</v>
+      </c>
+      <c r="F61" s="3">
         <v>5341000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>5293400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>5277100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>5274500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>5272100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>5270900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5266200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>5264300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>5109700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>5112900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>5110000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>5108300</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2158800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2150100</v>
+      </c>
+      <c r="F62" s="3">
         <v>2182700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2241900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>616800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>626100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>628900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>604400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>605400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>888800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>887100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>883400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>898000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>895600</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3072,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3119,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3166,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8600800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8512400</v>
+      </c>
+      <c r="F66" s="3">
         <v>8788400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8736500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6784000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6772600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6752000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6767200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6686100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>7017000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6784400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6766000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6799600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6853800</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3236,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3279,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3326,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3373,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3420,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5349600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-5376700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-5161400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-5150500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-5000900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-5026600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-4961500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-4892400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-4781200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-4221200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-4159600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4154800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-4125800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-4228700</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3514,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3561,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3608,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2207500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2245200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2360500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2410900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2262000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2293200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2230900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2151700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2015300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1436500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1367800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1379700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1080800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1178200</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3702,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-215300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-10900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-164200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>25700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-65100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-50400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-128400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-541900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-64200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-38300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-30700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>101500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +3824,57 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>77800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>76200</v>
+      </c>
+      <c r="F83" s="3">
         <v>80200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>75100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>74700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>77400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>82800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>84100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>89100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>81100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>155800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>77500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>86000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>85800</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3914,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3961,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4008,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4055,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +4102,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>145200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F89" s="3">
         <v>102800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-47700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>66800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>54600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>60800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>5000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>87000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>92200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-19100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-49700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>120100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +4172,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-218400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>76500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-51100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-28200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1800</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>2100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-74800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-164600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-101900</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4262,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4309,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-85700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-57600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-49100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-27600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-98300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-47100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-31000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-27300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-86600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-26900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-41000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>16300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>139800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-43000</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,49 +4379,57 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-700</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-29900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-50200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-282100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-281700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4469,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4516,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,127 +4563,151 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F100" s="3">
         <v>148000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>60300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>21500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-8400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-2900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>30500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-67400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>11900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-324000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-311100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-107300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-102400</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-1900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-3600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-7600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>3300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>2400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>6200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>3600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-5000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="F102" s="3">
         <v>201300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-14300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-11800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-4600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>19300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>11600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-64600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>79100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-378900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-341400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>147700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-45200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>CCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,244 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>314900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>550800</v>
+      </c>
+      <c r="F8" s="3">
         <v>745200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>653400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>698000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>587100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>747600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>663700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>712000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>598400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>728400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>644400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1215900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>544700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>722600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>669200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>253800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>350000</v>
+      </c>
+      <c r="F9" s="3">
         <v>383200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>358200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>363000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>347800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>374800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>361700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>372900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>361300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>370600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>357900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>681200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>329700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>355800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>362300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>200800</v>
+      </c>
+      <c r="F10" s="3">
         <v>362000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>295200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>335000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>239300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>372800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>302000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>339100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>237100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>357800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>286500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>534700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>215000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>366800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,102 +1022,120 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="E14" s="3">
+        <v>130200</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>101600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>5800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>5500</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>7800</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>858200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>1600</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>66200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>75800</v>
+      </c>
+      <c r="F15" s="3">
         <v>77800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>76200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>80200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>75100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>74700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>77400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>82800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>84100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>89100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>81100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>155800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>77500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>86000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>85800</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>383500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>715200</v>
+      </c>
+      <c r="F17" s="3">
         <v>631600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>702000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>621300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>583500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>631100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>612600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>618000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>608200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1487300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>616300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1108500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>524900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>471700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>608500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-68600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-164400</v>
+      </c>
+      <c r="F18" s="3">
         <v>113600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-48600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>76700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>3600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>116500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>51100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>94000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-9800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-758900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>28100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>107400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>19800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>250900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>60700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1277,275 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="F20" s="3">
         <v>20000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-26800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-9200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-12900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-5800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-35400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>19600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>28400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>25700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>42600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>18200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-107500</v>
+      </c>
+      <c r="F21" s="3">
         <v>211400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>147600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>78100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>178300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>122700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>141400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>93900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-641400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>134900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>305800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>115600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>326400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>151700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>88700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>90100</v>
+      </c>
+      <c r="F22" s="3">
         <v>88600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>106800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>108000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>114900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>96700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>96800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>96800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>97300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>96900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>95500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>187300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>92600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>93100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-161800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-273400</v>
+      </c>
+      <c r="F23" s="3">
         <v>45000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-182200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-40500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-111800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>6800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-51500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-38200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-87500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-827400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-41700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-37300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-54600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>147400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-27400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F24" s="3">
         <v>13400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>30100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-29100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>57800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-24500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>6900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>4800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>45400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-65100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>16300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-3400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-21800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>39100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-142600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-289200</v>
+      </c>
+      <c r="F26" s="3">
         <v>31600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-212400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-11400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-169600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>31300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-58400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-42900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-132800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-762300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-58000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-33900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-32700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>108300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-23800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-137200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-277500</v>
+      </c>
+      <c r="F27" s="3">
         <v>27100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-215300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-10900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-164200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>25700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-65100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-50400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-128400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-769900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-64200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-38300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-30700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>101500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1651,26 +1773,26 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>228000</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>228000</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>18900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-20000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>26800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>9200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>12900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>5800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>35400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-19600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-28400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-25700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-42600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-18200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>10400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-137200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-277500</v>
+      </c>
+      <c r="F33" s="3">
         <v>27100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-215300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-10900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-164200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>25700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-65100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-50400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-128400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-541900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-64200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-38300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-30700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>101500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-137200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-277500</v>
+      </c>
+      <c r="F35" s="3">
         <v>27100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-215300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-10900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-164200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>25700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-65100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-50400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-128400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-541900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-64200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-38300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-30700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>101500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>662100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>371800</v>
+      </c>
+      <c r="F41" s="3">
         <v>398900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>341800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>372500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>170500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>182500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>191100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>172300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>153200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>144100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>222400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>163100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>200600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>542000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>394300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,55 +2327,67 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>369300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>506300</v>
+      </c>
+      <c r="F43" s="3">
         <v>709700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>662200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>656400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>636500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>706300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>654000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>638100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>635800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>659500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>633000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>633700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>560800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>593100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>627900</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,119 +2433,137 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>87300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>771500</v>
+      </c>
+      <c r="F45" s="3">
         <v>93300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>90900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>99800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>91900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>127000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>158300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>194000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>214600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>170600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>193800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>167500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>203200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>206400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>260700</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1118700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1649600</v>
+      </c>
+      <c r="F46" s="3">
         <v>1201900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1094900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1128700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>899000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1015800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1003500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1004300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1003700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>974200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1049200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>964200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>964600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1341400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1282800</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>154800</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>154800</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>154800</v>
@@ -2365,14 +2575,14 @@
         <v>154800</v>
       </c>
       <c r="L47" s="3">
+        <v>154800</v>
+      </c>
+      <c r="M47" s="3">
+        <v>154800</v>
+      </c>
+      <c r="N47" s="3">
         <v>212000</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
@@ -2382,102 +2592,120 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2522400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2565800</v>
+      </c>
+      <c r="F48" s="3">
         <v>3096600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3071100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3196500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3249000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1288900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1256000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1288700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1365100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1395000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1380400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1410300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1398800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1412800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1493300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1849200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1850000</v>
+      </c>
+      <c r="F49" s="3">
         <v>1996700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1986600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2003500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1923200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1930000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1937200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1948400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1965100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1965100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1972900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1989000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1983200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1956800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2011700</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2804,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>73600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>59000</v>
+      </c>
+      <c r="F52" s="3">
         <v>98100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>114600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>99200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>99700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>132500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>128000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>124800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>126900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>124500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1178000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1053100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1039800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1007700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>887800</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5563800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6124400</v>
+      </c>
+      <c r="F54" s="3">
         <v>6393300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6267100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6428000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>6325600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4522000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4479400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4521100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4615500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4670800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5580500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5416600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5386400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5718800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5675600</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +3009,328 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>112500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>129600</v>
+      </c>
+      <c r="F57" s="3">
         <v>94600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>103000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>109600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>105000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>113700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>99300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>105400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>120600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>88000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>88000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>74200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>70600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>86900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>20300</v>
+        <v>20700</v>
       </c>
       <c r="E58" s="3">
         <v>20300</v>
       </c>
       <c r="F58" s="3">
+        <v>20300</v>
+      </c>
+      <c r="G58" s="3">
+        <v>20300</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>9500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>6700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>7000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>884100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1162100</v>
+      </c>
+      <c r="F59" s="3">
         <v>1065600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>982200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1009300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>940900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>615900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>619100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>593200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>612800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>569000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>623000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>552700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>547400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>547900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>586000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1017300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1312000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1180500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1105500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1119200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1046100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>729800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>718800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>699000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>733900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>657500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>711600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>636300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>624700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>641700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>666800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5257100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5257000</v>
+      </c>
+      <c r="F61" s="3">
         <v>5108600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>5111700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>5341000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>5293400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>5277100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>5274500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5272100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>5270900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>5266200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>5264300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>5109700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>5112900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>5110000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>5108300</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1897300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1918900</v>
+      </c>
+      <c r="F62" s="3">
         <v>2158800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2150100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2182700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2241900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>616800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>626100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>628900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>604400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>605400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>888800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>887100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>883400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>898000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>895600</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8183100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8626700</v>
+      </c>
+      <c r="F66" s="3">
         <v>8600800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8512400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8788400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8736500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6784000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6772600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6752000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6767200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6686100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7017000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6784400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6766000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6799600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6853800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5771500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-5634300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-5349600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-5376700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-5161400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-5150500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-5000900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-5026600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-4961500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-4892400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-4781200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4221200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-4159600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-4154800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-4125800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-4228700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2619300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2502300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2207500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2245200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2360500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2410900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2262000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2293200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2230900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2151700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2015300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1436500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1367800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1379700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1080800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1178200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-137200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-277500</v>
+      </c>
+      <c r="F81" s="3">
         <v>27100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-215300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-10900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-164200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>25700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-65100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-50400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-128400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-541900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-64200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-38300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-30700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>101500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4222,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>66200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>75800</v>
+      </c>
+      <c r="F83" s="3">
         <v>77800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>76200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>80200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>75100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>74700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>77400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>82800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>84100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>89100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>81100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>155800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>77500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>86000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>85800</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-98600</v>
+      </c>
+      <c r="F89" s="3">
         <v>145200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>14200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>102800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-47700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>66800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>54600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>60800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>5000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>87000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>92200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-19100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-49700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>120100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4614,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-218400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>76500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-51100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-28200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1800</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>2100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-74800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-164600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-101900</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>185500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-85700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-57600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-49100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-27600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-98300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-47100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-31000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-27300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-86600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-26900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-41000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>16300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>139800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-43000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4393,43 +4861,49 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-700</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-29900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-50200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-282100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-281700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +5055,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>144600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-5800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>17500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>148000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>60300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>21500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-8400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>30500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-67400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>11900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-324000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-311100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-107300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-102400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F101" s="3">
         <v>4900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-5400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-1900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-3600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-7600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>3300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>2400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>6200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>3600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>254900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F102" s="3">
         <v>58600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-31300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>201300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-14300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-11800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-4600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>19300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>11600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-64600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>79100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-378900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-341400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>147700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-45200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>CCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>447500</v>
+      </c>
+      <c r="E8" s="3">
         <v>314900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>550800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>745200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>653400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>698000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>587100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>747600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>663700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>712000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>598400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>728400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>644400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1215900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>544700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>722600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>669200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>289200</v>
+      </c>
+      <c r="E9" s="3">
         <v>253800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>350000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>383200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>358200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>363000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>347800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>374800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>361700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>372900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>361300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>370600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>357900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>681200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>329700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>355800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>362300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>158300</v>
+      </c>
+      <c r="E10" s="3">
         <v>61100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>200800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>362000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>295200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>335000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>239300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>372800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>302000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>339100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>237100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>357800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>286500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>534700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>215000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>366800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,114 +1045,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E14" s="3">
         <v>5400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>130200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>101600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5500</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>7800</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>858200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1600</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E15" s="3">
         <v>66200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>75800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>77800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>76200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>80200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>75100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>74700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>77400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>82800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>84100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>89100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>81100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>155800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>77500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>86000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>85800</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>528800</v>
+      </c>
+      <c r="E17" s="3">
         <v>383500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>715200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>631600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>702000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>621300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>583500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>631100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>612600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>618000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>608200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1487300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>616300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1108500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>524900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>471700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>608500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-81300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-68600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-164400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>113600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-48600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>76700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>116500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>51100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>94000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-758900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>28100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>107400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>19800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>250900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>60700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-18900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>20000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-26800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-9200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-12900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-35400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>19600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>28400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>25700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>42600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>18200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-10400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-107500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>211400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>147600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>78100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>178300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>122700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>141400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>93900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-641400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>134900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>305800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>115600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>326400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>151700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>90600</v>
+      </c>
+      <c r="E22" s="3">
         <v>88700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>90100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>88600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>106800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>108000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>114900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>96700</v>
-      </c>
-      <c r="K22" s="3">
-        <v>96800</v>
       </c>
       <c r="L22" s="3">
         <v>96800</v>
       </c>
       <c r="M22" s="3">
+        <v>96800</v>
+      </c>
+      <c r="N22" s="3">
         <v>97300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>96900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>95500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>187300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>92600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>93100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-165400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-161800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-273400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>45000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-182200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-40500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-111800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-51500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-38200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-87500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-827400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-41700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-37300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-54600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>147400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-27400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-19200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>15800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>13400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>30100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-29100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>57800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-24500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>45400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-65100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>16300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-21800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>39100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-135800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-142600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-289200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>31600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-212400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-169600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>31300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-58400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-42900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-132800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-762300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-58000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-33900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-32700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>108300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-23800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-135900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-137200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-277500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>27100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-215300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-164200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>25700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-65100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-50400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-128400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-769900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-64200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-38300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-30700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>101500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1779,11 +1840,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1791,11 +1852,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>228000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E32" s="3">
         <v>4500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>18900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-20000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>26800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>9200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>12900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>35400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-19600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-28400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-25700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-42600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-18200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>10400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-135900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-137200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-277500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>27100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-215300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-164200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>25700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-65100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-50400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-128400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-541900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-64200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-38300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-30700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>101500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-135900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-137200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-277500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>27100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-215300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-164200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>25700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-65100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-50400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-128400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-541900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-64200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-38300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-30700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>101500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>845000</v>
+      </c>
+      <c r="E41" s="3">
         <v>662100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>371800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>398900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>341800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>372500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>170500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>182500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>191100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>172300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>153200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>144100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>222400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>163100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>200600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>542000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>394300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,61 +2423,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>430000</v>
+      </c>
+      <c r="E43" s="3">
         <v>369300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>506300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>709700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>662200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>656400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>636500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>706300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>654000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>638100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>635800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>659500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>633000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>633700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>560800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>593100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>627900</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,114 +2535,123 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E45" s="3">
         <v>87300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>771500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>93300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>90900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>99800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>91900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>127000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>158300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>194000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>214600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>170600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>193800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>167500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>203200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>206400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>260700</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1354900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1118700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1649600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1201900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1094900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1128700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>899000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1015800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1003500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1004300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1003700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>974200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1049200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>964200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>964600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1341400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1282800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2556,8 +2661,8 @@
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -2566,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>154800</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>154800</v>
@@ -2581,11 +2686,11 @@
         <v>154800</v>
       </c>
       <c r="N47" s="3">
+        <v>154800</v>
+      </c>
+      <c r="O47" s="3">
         <v>212000</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
@@ -2598,114 +2703,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2550700</v>
+      </c>
+      <c r="E48" s="3">
         <v>2522400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2565800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3096600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3071100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3196500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3249000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1288900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1256000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1288700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1365100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1395000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1380400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1410300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1398800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1412800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1493300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1824100</v>
+      </c>
+      <c r="E49" s="3">
         <v>1849200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1850000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1996700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1986600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2003500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1923200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1930000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1937200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1948400</v>
-      </c>
-      <c r="M49" s="3">
-        <v>1965100</v>
       </c>
       <c r="N49" s="3">
         <v>1965100</v>
       </c>
       <c r="O49" s="3">
+        <v>1965100</v>
+      </c>
+      <c r="P49" s="3">
         <v>1972900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1989000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1983200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1956800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2011700</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E52" s="3">
         <v>73600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>59000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>98100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>114600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>99200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>99700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>132500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>128000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>124800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>126900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>124500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1178000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1053100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1039800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1007700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>887800</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5801500</v>
+      </c>
+      <c r="E54" s="3">
         <v>5563800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6124400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6393300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6267100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6428000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6325600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4522000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4479400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4521100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4615500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4670800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5580500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5416600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5386400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5718800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5675600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,69 +3141,73 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>107800</v>
+      </c>
+      <c r="E57" s="3">
         <v>112500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>129600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>94600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>103000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>109600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>105000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>113700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>99300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>105400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>120600</v>
-      </c>
-      <c r="N57" s="3">
-        <v>88000</v>
       </c>
       <c r="O57" s="3">
         <v>88000</v>
       </c>
       <c r="P57" s="3">
+        <v>88000</v>
+      </c>
+      <c r="Q57" s="3">
         <v>74200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>70600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>86900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E58" s="3">
         <v>20700</v>
-      </c>
-      <c r="E58" s="3">
-        <v>20300</v>
       </c>
       <c r="F58" s="3">
         <v>20300</v>
@@ -3082,255 +3216,270 @@
         <v>20300</v>
       </c>
       <c r="H58" s="3">
+        <v>20300</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>200</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
       </c>
       <c r="K58" s="3">
+        <v>200</v>
+      </c>
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>923200</v>
+      </c>
+      <c r="E59" s="3">
         <v>884100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1162100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1065600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>982200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1009300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>940900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>615900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>619100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>593200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>612800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>569000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>623000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>552700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>547400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>547900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>586000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1052500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1017300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1312000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1180500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1105500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1119200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1046100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>729800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>718800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>699000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>733900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>657500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>711600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>636300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>624700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>641700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>666800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5573900</v>
+      </c>
+      <c r="E61" s="3">
         <v>5257100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5257000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5108600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5111700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5341000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5293400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5277100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5274500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5272100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5270900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5266200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5264300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5109700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5112900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5110000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5108300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1914000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1897300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1918900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2158800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2150100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2182700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2241900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>616800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>626100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>628900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>604400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>605400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>888800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>887100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>883400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>898000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>895600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8551800</v>
+      </c>
+      <c r="E66" s="3">
         <v>8183100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8626700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8600800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8512400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8788400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8736500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6784000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6772600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6752000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6767200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6686100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7017000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6784400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6766000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6799600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6853800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5907400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5771500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5634300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5349600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5376700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5161400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5150500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5000900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5026600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4961500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4892400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4781200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4221200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4159600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4154800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4125800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4228700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2750300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2619300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2502300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2207500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2245200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2360500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2410900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2262000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2293200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2230900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2151700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2015300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1436500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1367800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1379700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1080800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1178200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-135900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-137200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-277500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>27100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-215300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-164200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>25700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-65100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-50400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-128400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-541900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-64200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-38300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-30700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>101500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E83" s="3">
         <v>66200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>75800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>77800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>76200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>80200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>75100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>74700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>77400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>82800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>84100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>89100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>81100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>155800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>77500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>86000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>85800</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-91000</v>
+      </c>
+      <c r="E89" s="3">
         <v>74200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-98600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>145200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>14200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>102800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-47700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>66800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>54600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>60800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>87000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>92200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-19100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-49700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>120100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-218400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>76500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-51100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-28200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>2100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-74800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-164600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-101900</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E94" s="3">
         <v>185500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-35900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-85700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-57600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-49100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-27600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-98300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-47100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-31000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-27300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-86600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-26900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-41000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>16300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>139800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-43000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4867,11 +5101,11 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-700</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -4879,31 +5113,34 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-29900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-50200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-282100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-281700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>306600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>144600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>17500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>148000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>60300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>21500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>30500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-67400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>11900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-324000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-311100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-107300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-102400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-8700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-7600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>6200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>184200</v>
+      </c>
+      <c r="E102" s="3">
         <v>254900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>58600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-31300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>201300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-14300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-11800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>19300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-64600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>79100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-378900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-341400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>147700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-45200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>CCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,282 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>370900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>541400</v>
+      </c>
+      <c r="F8" s="3">
         <v>447500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>314900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>550800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>745200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>653400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>698000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>587100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>747600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>663700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>712000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>598400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>728400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>644400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1215900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>544700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>722600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>669200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>282400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>300900</v>
+      </c>
+      <c r="F9" s="3">
         <v>289200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>253800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>350000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>383200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>358200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>363000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>347800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>374800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>361700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>372900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>361300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>370600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>357900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>681200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>329700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>355800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>362300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>88500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>240500</v>
+      </c>
+      <c r="F10" s="3">
         <v>158300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>61100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>200800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>362000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>295200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>335000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>239300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>372800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>302000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>339100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>237100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>357800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>286500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>534700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>215000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>366800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,120 +1081,138 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>177500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F14" s="3">
         <v>41900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>5400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>130200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>101600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>5800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>5500</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>7800</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>858200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>1600</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>61900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>65000</v>
+      </c>
+      <c r="F15" s="3">
         <v>62400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>66200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>75800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>77800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>76200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>80200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>75100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>74700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>77400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>82800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>84100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>89100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>81100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>155800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>77500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>86000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>85800</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>646900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>524900</v>
+      </c>
+      <c r="F17" s="3">
         <v>528800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>383500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>715200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>631600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>702000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>621300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>583500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>631100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>612600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>618000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>608200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1487300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>616300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1108500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>524900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>471700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>608500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-276000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>16500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-81300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-68600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-164400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>113600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-48600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>76700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>3600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>116500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>51100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>94000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-9800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-758900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>28100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>107400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>19800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>250900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>60700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1378,320 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F20" s="3">
         <v>6500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-4500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-18900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>20000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-26800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-9200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-12900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-5800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-35400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>19600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>28400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>25700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>42600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>18200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-10400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-88700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>98300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-12400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-6900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-107500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>211400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>147600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>78100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>178300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>122700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>141400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>93900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-641400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>134900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>305800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>115600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>326400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>151700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>92700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>90800</v>
+      </c>
+      <c r="F22" s="3">
         <v>90600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>88700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>90100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>88600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>106800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>108000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>114900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>96700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>96800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>96800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>97300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>96900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>95500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>187300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>92600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>93100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-362200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-57600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-165400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-161800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-273400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>45000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-182200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-40500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-111800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>6800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-51500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-38200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-87500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-827400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-41700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-37300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-54600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>147400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-27400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-29500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-19200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>15800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>13400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>30100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-29100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>57800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-24500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>6900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>4800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>45400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-65100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>16300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-3400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-21800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>39100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-333500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-135800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-142600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-289200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>31600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-212400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-11400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-169600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>31300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-58400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-42900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-132800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-762300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-58000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-33900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-32700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>108300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-23800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-332400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-135900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-137200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-277500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>27100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-215300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-10900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-164200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>25700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-65100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-50400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-128400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-769900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-64200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-38300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-30700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>101500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,52 +1932,58 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>228000</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>228000</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2118,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-6500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>4500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>18900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-20000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>26800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>9200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>12900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>5800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>35400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-19600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-28400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-25700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-42600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-18200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>10400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-332400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-135900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-137200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-277500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>27100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-215300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-10900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-164200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>25700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-65100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-50400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-128400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-541900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-64200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-38300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-30700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>101500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-332400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-135900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-137200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-277500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>27100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-215300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-10900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-164200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>25700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-65100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-50400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-128400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-541900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-64200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-38300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-30700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>101500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2485,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>642200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>785300</v>
+      </c>
+      <c r="F41" s="3">
         <v>845000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>662100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>371800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>398900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>341800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>372500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>170500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>182500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>191100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>172300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>153200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>144100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>222400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>163100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>200600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>542000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>394300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,64 +2605,76 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>358500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>468300</v>
+      </c>
+      <c r="F43" s="3">
         <v>430000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>369300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>506300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>709700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>662200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>656400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>636500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>706300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>654000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>638100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>635800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>659500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>633000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>633700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>560800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>593100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>627900</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,131 +2729,149 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>81100</v>
+      </c>
+      <c r="F45" s="3">
         <v>80000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>87300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>771500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>93300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>90900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>99800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>91900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>127000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>158300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>194000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>214600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>170600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>193800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>167500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>203200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>206400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>260700</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1087700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1334800</v>
+      </c>
+      <c r="F46" s="3">
         <v>1354900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1118700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1649600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1201900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1094900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1128700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>899000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1015800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1003500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1004300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1003700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>974200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1049200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>964200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>964600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1341400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1282800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -2674,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>154800</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>154800</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>154800</v>
@@ -2689,14 +2898,14 @@
         <v>154800</v>
       </c>
       <c r="O47" s="3">
+        <v>154800</v>
+      </c>
+      <c r="P47" s="3">
+        <v>154800</v>
+      </c>
+      <c r="Q47" s="3">
         <v>212000</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
       <c r="R47" s="3">
         <v>0</v>
       </c>
@@ -2706,120 +2915,138 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2462000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2521500</v>
+      </c>
+      <c r="F48" s="3">
         <v>2550700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2522400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2565800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3096600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3071100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3196500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3249000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1288900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1256000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1288700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1365100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1395000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1380400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1410300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1398800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1412800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1493300</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1698100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1828900</v>
+      </c>
+      <c r="F49" s="3">
         <v>1824100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1849200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1850000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1996700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1986600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2003500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1923200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1930000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1937200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1948400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1965100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1965100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1972900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1989000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1983200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1956800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>2011700</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3163,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>69100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>70100</v>
+      </c>
+      <c r="F52" s="3">
         <v>71700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>73600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>59000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>98100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>114600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>99200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>99700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>132500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>128000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>124800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>126900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>124500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1178000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1053100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1039800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1007700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>887800</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5316800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5755300</v>
+      </c>
+      <c r="F54" s="3">
         <v>5801500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5563800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6124400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>6393300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>6267100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6428000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6325600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4522000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4479400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4521100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4615500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4670800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5580500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5416600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5386400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>5718800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>5675600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3401,382 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>96600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>101200</v>
+      </c>
+      <c r="F57" s="3">
         <v>107800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>112500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>129600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>94600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>103000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>109600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>105000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>113700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>99300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>105400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>120600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>88000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>88000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>74200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>70600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>86900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F58" s="3">
         <v>21500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>20700</v>
-      </c>
-      <c r="F58" s="3">
-        <v>20300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>20300</v>
       </c>
       <c r="H58" s="3">
         <v>20300</v>
       </c>
       <c r="I58" s="3">
+        <v>20300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>9500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>6700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>7000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>891400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>967700</v>
+      </c>
+      <c r="F59" s="3">
         <v>923200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>884100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1162100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1065600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>982200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1009300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>940900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>615900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>619100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>593200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>612800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>569000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>623000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>552700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>547400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>547900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>586000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1009400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1090200</v>
+      </c>
+      <c r="F60" s="3">
         <v>1052500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1017300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1312000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1180500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1105500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1119200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1046100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>729800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>718800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>699000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>733900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>657500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>711600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>636300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>624700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>641700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>666800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5604300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5550900</v>
+      </c>
+      <c r="F61" s="3">
         <v>5573900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>5257100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>5257000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>5108600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>5111700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>5341000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5293400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>5277100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>5274500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>5272100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>5270900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>5266200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>5264300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>5109700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>5112900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>5110000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>5108300</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1833800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1896800</v>
+      </c>
+      <c r="F62" s="3">
         <v>1914000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1897300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1918900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2158800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2150100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2182700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2241900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>616800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>626100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>628900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>604400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>605400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>888800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>887100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>883400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>898000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>895600</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8457100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8548700</v>
+      </c>
+      <c r="F66" s="3">
         <v>8551800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8183100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8626700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8600800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8512400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8788400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8736500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6784000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6772600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6752000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6767200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6686100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>7017000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6784400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>6766000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6799600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>6853800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6271900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-5939500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-5907400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-5771500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-5634300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-5349600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-5376700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-5161400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-5150500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-5000900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-5026600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4961500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-4892400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-4781200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-4221200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-4159600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-4154800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-4125800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-4228700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3140300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2793500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2750300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2619300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2502300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2207500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2245200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2360500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2410900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2262000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2293200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2230900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2151700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2015300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1436500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1367800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1379700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1080800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1178200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-332400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-135900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-137200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-277500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>27100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-215300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-10900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-164200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>25700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-65100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-50400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-128400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-541900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-64200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-38300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-30700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>101500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4818,72 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>180800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>65000</v>
+      </c>
+      <c r="F83" s="3">
         <v>62400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>66200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>75800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>77800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>76200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>80200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>75100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>74700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>77400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>82800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>84100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>89100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>81100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>155800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>77500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>86000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>85800</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-124300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-91000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>74200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-98600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>145200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>14200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>102800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-47700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>66800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>54600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>60800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>5000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>87000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>92200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-19100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-49700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>120100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5276,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-17900</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-218400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>76500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-51100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-28200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1800</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>2100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-74800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-164600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-101900</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5458,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-25300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>185500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-35900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-85700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-57600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-49100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-27600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-98300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-47100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-31000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-27300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-86600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-26900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-41000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>16300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>139800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-43000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5104,43 +5571,49 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-700</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-29900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-50200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-282100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-281700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5792,196 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="F100" s="3">
         <v>306600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-6200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>144600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-5800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>17500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>148000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>60300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>21500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-8400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-2900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>30500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-67400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>11900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-324000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-311100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-107300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-102400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-6000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-8700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>4900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-5400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-3600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-7600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>3300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>2400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>1300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>6200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>3600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-5000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-143800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="F102" s="3">
         <v>184200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>254900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>58600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-31300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>201300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-14300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-11800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-4600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>19300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>11600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-64600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>79100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-378900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-341400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>147700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-45200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>CCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,308 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>596400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>531100</v>
+      </c>
+      <c r="F8" s="3">
         <v>370900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>541400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>447500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>314900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>550800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>745200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>653400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>698000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>587100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>747600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>663700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>712000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>598400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>728400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>644400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1215900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>544700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>722600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>669200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>316600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>297100</v>
+      </c>
+      <c r="F9" s="3">
         <v>282400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>300900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>289200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>253800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>350000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>383200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>358200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>363000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>347800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>374800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>361700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>372900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>361300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>370600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>357900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>681200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>329700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>355800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>362300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>279800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>234000</v>
+      </c>
+      <c r="F10" s="3">
         <v>88500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>240500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>158300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>61100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>200800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>362000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>295200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>335000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>239300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>372800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>302000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>339100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>237100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>357800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>286500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>534700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>215000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>366800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,132 +1121,150 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E14" s="3">
+        <v>70300</v>
+      </c>
+      <c r="F14" s="3">
         <v>177500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>11300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>41900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>5400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>130200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>101600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>5800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>5500</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>7800</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>858200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>1600</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E15" s="3">
+        <v>62600</v>
+      </c>
+      <c r="F15" s="3">
         <v>61900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>65000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>62400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>66200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>75800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>77800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>76200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>80200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>75100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>74700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>77400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>82800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>84100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>89100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>81100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>155800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>77500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>86000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>85800</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>547800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>569300</v>
+      </c>
+      <c r="F17" s="3">
         <v>646900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>524900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>528800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>383500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>715200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>631600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>702000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>621300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>583500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>631100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>612600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>618000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>608200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1487300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>616300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1108500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>524900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>471700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>608500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-276000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>16500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-81300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-68600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-164400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>113600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-48600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>76700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>3600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>116500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>51100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>94000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-758900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>28100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>107400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>19800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>250900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>60700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1446,350 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F20" s="3">
         <v>6600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>16700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>6500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-4500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-18900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>20000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-26800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-9200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-12900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-5800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-35400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>19600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>28400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>25700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>42600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>18200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-10400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>102200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-88700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>98300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-12400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-6900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-107500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>211400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>147600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>78100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>178300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>122700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>141400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>93900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-641400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>134900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>305800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>115600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>326400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>151700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>84300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>90200</v>
+      </c>
+      <c r="F22" s="3">
         <v>92700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>90800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>90600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>88700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>90100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>88600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>106800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>108000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>114900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>96700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>96800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>96800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>97300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>96900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>95500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>187300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>92600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>93100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-47700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-124800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-362200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-57600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-165400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-161800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-273400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>45000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-182200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-40500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-111800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>6800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-51500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-38200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-87500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-827400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-41700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-37300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-54600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>147400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-27400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-28700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-25000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-29500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-19200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>15800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>13400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>30100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-29100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>57800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-24500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>6900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>4800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>45400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-65100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>16300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-3400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-21800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>39100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-124400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-333500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-32600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-135800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-142600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-289200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>31600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-212400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-11400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-169600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>31300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-58400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-42900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-132800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-762300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-58000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-33900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-32700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>108300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-23800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-124600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-332400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-32100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-135900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-137200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-277500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>27100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-215300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-10900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-164200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>25700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-65100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-50400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-128400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-769900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-64200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-38300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-30700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>101500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,32 +2086,32 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>228000</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>228000</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-6600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-16700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-6500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>4500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>18900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-20000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>26800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>9200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>12900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>5800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>35400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-19600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-28400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-25700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-42600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-18200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>10400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-124600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-332400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-32100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-135900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-137200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-277500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>27100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-215300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-10900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-164200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>25700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-65100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-50400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-128400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-541900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-64200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-38300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-30700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>101500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-124600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-332400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-32100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-135900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-137200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-277500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>27100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-215300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-10900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-164200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>25700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-65100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-50400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-128400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-541900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-64200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-38300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-30700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>101500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2659,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>564000</v>
+      </c>
+      <c r="F41" s="3">
         <v>642200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>785300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>845000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>662100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>371800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>398900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>341800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>372500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>170500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>182500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>191100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>172300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>153200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>144100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>222400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>163100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>200600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>542000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>394300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,70 +2791,82 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>537300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>489800</v>
+      </c>
+      <c r="F43" s="3">
         <v>358500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>468300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>430000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>369300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>506300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>709700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>662200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>656400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>636500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>706300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>654000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>638100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>635800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>659500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>633000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>633700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>560800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>593100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>627900</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,132 +2927,150 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>83100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>87100</v>
+      </c>
+      <c r="F45" s="3">
         <v>87000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>81100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>80000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>87300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>771500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>93300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>90900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>99800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>91900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>127000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>158300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>194000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>214600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>170600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>193800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>167500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>203200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>206400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>260700</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1220400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1140900</v>
+      </c>
+      <c r="F46" s="3">
         <v>1087700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1334800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1354900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1118700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1649600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1201900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1094900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1128700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>899000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1015800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1003500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1004300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1003700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>974200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1049200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>964200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>964600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1341400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1282800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2889,10 +3099,10 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>154800</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>154800</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
         <v>154800</v>
@@ -2904,14 +3114,14 @@
         <v>154800</v>
       </c>
       <c r="Q47" s="3">
+        <v>154800</v>
+      </c>
+      <c r="R47" s="3">
+        <v>154800</v>
+      </c>
+      <c r="S47" s="3">
         <v>212000</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
       <c r="T47" s="3">
         <v>0</v>
       </c>
@@ -2921,132 +3131,150 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2388300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2450900</v>
+      </c>
+      <c r="F48" s="3">
         <v>2462000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2521500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2550700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2522400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2565800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3096600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3071100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3196500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3249000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1288900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1256000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1288700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1365100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1395000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1380400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1410300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1398800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1412800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1493300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1688200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1695500</v>
+      </c>
+      <c r="F49" s="3">
         <v>1698100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1828900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1824100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1849200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1850000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1996700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1986600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2003500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1923200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1930000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1937200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1948400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1965100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1965100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1972900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1989000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1983200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1956800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>2011700</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3403,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E52" s="3">
         <v>69100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
+        <v>69100</v>
+      </c>
+      <c r="G52" s="3">
         <v>70100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>71700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>73600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>59000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>98100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>114600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>99200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>99700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>132500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>128000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>124800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>126900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>124500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1178000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1053100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1039800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1007700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>887800</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5365300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5356300</v>
+      </c>
+      <c r="F54" s="3">
         <v>5316800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5755300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5801500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5563800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>6124400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6393300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6267100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6428000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>6325600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4522000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4479400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4521100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4615500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4670800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5580500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>5416600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>5386400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>5718800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>5675600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3663,418 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>99200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>101900</v>
+      </c>
+      <c r="F57" s="3">
         <v>96600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>101200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>107800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>112500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>129600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>94600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>103000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>109600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>105000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>113700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>99300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>105400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>120600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>88000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>88000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>74200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>70600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>86900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>21300</v>
+      </c>
+      <c r="F58" s="3">
         <v>21400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>21400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>21500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>20700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>20300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>20300</v>
       </c>
       <c r="J58" s="3">
         <v>20300</v>
       </c>
       <c r="K58" s="3">
+        <v>20300</v>
+      </c>
+      <c r="L58" s="3">
+        <v>20300</v>
+      </c>
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>9500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>6700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>7000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>989200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>917700</v>
+      </c>
+      <c r="F59" s="3">
         <v>891400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>967700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>923200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>884100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1162100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1065600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>982200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1009300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>940900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>615900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>619100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>593200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>612800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>569000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>623000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>552700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>547400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>547900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>586000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1109600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1040900</v>
+      </c>
+      <c r="F60" s="3">
         <v>1009400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1090200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1052500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1017300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1312000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1180500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1105500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1119200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1046100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>729800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>718800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>699000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>733900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>657500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>711600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>636300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>624700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>641700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>666800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5716700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5720400</v>
+      </c>
+      <c r="F61" s="3">
         <v>5604300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>5550900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>5573900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>5257100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>5257000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>5108600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5111700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>5341000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>5293400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>5277100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>5274500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>5272100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>5270900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>5266200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>5264300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>5109700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>5112900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>5110000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>5108300</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1826800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1847200</v>
+      </c>
+      <c r="F62" s="3">
         <v>1833800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1896800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1914000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1897300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1918900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2158800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2150100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2182700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2241900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>616800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>626100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>628900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>604400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>605400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>888800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>887100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>883400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>898000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>895600</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8662900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8618300</v>
+      </c>
+      <c r="F66" s="3">
         <v>8457100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8548700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8551800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8183100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8626700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8600800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8512400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8788400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8736500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6784000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6772600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6752000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6767200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6686100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>7017000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6784400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>6766000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>6799600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>6853800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6437300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-6396500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-6271900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-5939500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-5907400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-5771500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-5634300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-5349600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-5376700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-5161400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-5150500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-5000900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-5026600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-4961500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-4892400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-4781200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-4221200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-4159600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-4154800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-4125800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-4228700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3297500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3262000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3140300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2793500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2750300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2619300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2502300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2207500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2245200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2360500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2410900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2262000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2293200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2230900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-2151700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2015300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1436500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1367800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1379700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-1080800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-1178200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-124600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-332400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-32100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-135900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-137200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-277500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>27100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-215300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-10900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-164200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>25700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-65100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-50400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-128400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-541900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-64200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-38300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-30700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>101500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5216,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>62600</v>
+      </c>
+      <c r="F83" s="3">
         <v>180800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>65000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>62400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>66200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>75800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>77800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>76200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>80200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>75100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>74700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>77400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>82800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>84100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>89100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>81100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>155800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>77500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>86000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>85800</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-107900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-124300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-22400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-91000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>74200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-98600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>145200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>14200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>102800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-47700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>66800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>54600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>60800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>5000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>87000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>92200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-19100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-49700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>120100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5718,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-17900</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-3100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-218400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>76500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-51100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-28200</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1800</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>2100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-1700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-74800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-164600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-101900</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5918,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-17600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-29700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-25300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>185500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-35900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-85700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-57600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-49100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-27600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-98300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-47100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-31000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-27300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-86600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-26900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-41000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>16300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>139800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-43000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5577,43 +6045,49 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-700</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-29900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-50200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-282100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-281700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6284,214 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>58600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-26700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>306600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-6200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>144600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-5800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>17500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>148000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>60300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>21500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-8400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-2900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>30500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-67400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>11900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-324000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-311100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-107300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-102400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>800</v>
+      </c>
+      <c r="F101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>16300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-6000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>1400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-8700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>4900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-5400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-1900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-3600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-7600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>3300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>2400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>1300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>6200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>3600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-5000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-143800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-62500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>184200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>254900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>58600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-31300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>201300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-14300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-11800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-4600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>19300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>11600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-64600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>79100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-378900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-341400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>147700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-45200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>CCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>742700</v>
+      </c>
+      <c r="E8" s="3">
         <v>596400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>531100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>370900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>541400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>447500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>314900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>550800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>745200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>653400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>698000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>587100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>747600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>663700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>712000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>598400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>728400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>644400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1215900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>544700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>722600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>669200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>355400</v>
+      </c>
+      <c r="E9" s="3">
         <v>316600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>297100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>282400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>300900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>289200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>253800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>350000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>383200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>358200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>363000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>347800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>374800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>361700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>372900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>361300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>370600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>357900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>681200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>329700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>355800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>362300</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>387300</v>
+      </c>
+      <c r="E10" s="3">
         <v>279800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>234000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>88500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>240500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>158300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>61100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>200800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>362000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>295200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>335000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>239300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>372800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>302000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>339100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>237100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>357800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>286500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>534700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>215000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>366800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,144 +1143,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E14" s="3">
         <v>18700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>70300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>177500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>11300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>41900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>130200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>101600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5500</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>7800</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>858200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1600</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>63100</v>
+      </c>
+      <c r="E15" s="3">
         <v>65600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>62600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>61900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>65000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>62400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>66200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>75800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>77800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>76200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>80200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>75100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>74700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>77400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>82800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>84100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>89100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>81100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>155800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>77500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>86000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>85800</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>596000</v>
+      </c>
+      <c r="E17" s="3">
         <v>547800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>569300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>646900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>524900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>528800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>383500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>715200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>631600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>702000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>621300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>583500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>631100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>612600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>618000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>608200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1487300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>616300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1108500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>524900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>471700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>608500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>146700</v>
+      </c>
+      <c r="E18" s="3">
         <v>48600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-38200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-276000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>16500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-81300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-68600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-164400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>113600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-48600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>76700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>116500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>51100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>94000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-9800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-758900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>28100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>107400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>19800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>250900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>60700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1480,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-12000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>16700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-18900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>20000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-26800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-9200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-12900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-35400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>19600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>28400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>25700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>42600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>18200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-10400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>213400</v>
+      </c>
+      <c r="E21" s="3">
         <v>102200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>28000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-88700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>98300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-12400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-107500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>211400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>147600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>78100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>178300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>122700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>141400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>93900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-641400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>134900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>305800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>115600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>326400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>151700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>83200</v>
+      </c>
+      <c r="E22" s="3">
         <v>84300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>90200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>92700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>90800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>90600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>88700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>90100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>88600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>106800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>108000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>114900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>96700</v>
-      </c>
-      <c r="P22" s="3">
-        <v>96800</v>
       </c>
       <c r="Q22" s="3">
         <v>96800</v>
       </c>
       <c r="R22" s="3">
+        <v>96800</v>
+      </c>
+      <c r="S22" s="3">
         <v>97300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>96900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>95500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>187300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>92600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>93100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-47700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-124800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-362200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-57600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-165400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-161800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-273400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>45000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-182200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-40500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-111800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-51500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-38200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-87500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-827400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-41700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-37300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-54600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>147400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-27400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-6900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-28700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-25000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-29500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-19200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>15800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>30100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-29100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>57800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-24500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>45400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-65100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>16300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-3400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-21800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>39100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>65500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-40800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-124400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-333500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-32600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-135800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-142600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-289200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>31600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-212400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-169600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>31300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-58400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-42900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-132800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-762300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-58000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-33900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-32700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>108300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-23800</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-40800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-124600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-332400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-32100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-135900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-137200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-277500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>27100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-215300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-164200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>25700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-65100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-50400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-128400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-769900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-64200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-38300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-30700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>101500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2092,17 +2152,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2110,11 +2170,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>228000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E32" s="3">
         <v>12000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-16700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>18900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-20000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>26800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>9200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>12900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>35400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-19600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-28400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-25700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-42600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-18200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>10400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-40800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-124600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-332400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-32100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-135900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-137200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-277500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>27100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-215300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-164200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>25700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-65100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-50400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-128400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-541900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-64200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-38300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-30700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>101500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-40800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-124600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-332400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-32100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-135900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-137200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-277500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>27100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-215300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-164200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>25700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-65100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-50400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-128400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-541900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-64200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-38300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-30700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>101500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>410800</v>
+      </c>
+      <c r="E41" s="3">
         <v>600000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>564000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>642200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>785300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>845000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>662100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>371800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>398900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>341800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>372500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>170500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>182500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>191100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>172300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>153200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>144100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>222400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>163100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>200600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>542000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>394300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,76 +2886,82 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>643100</v>
+      </c>
+      <c r="E43" s="3">
         <v>537300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>489800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>358500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>468300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>430000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>369300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>506300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>709700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>662200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>656400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>636500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>706300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>654000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>638100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>635800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>659500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>633000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>633700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>560800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>593100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>627900</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,144 +3028,153 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>80600</v>
+      </c>
+      <c r="E45" s="3">
         <v>83100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>87100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>87000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>81100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>80000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>87300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>771500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>93300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>90900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>99800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>91900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>127000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>158300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>194000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>214600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>170600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>193800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>167500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>203200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>206400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>260700</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1134500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1220400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1140900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1087700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1334800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1354900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1118700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1649600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1201900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1094900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1128700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>899000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1015800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1003500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1004300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1003700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>974200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1049200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>964200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>964600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1341400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1282800</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3105,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <v>154800</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
         <v>154800</v>
@@ -3120,11 +3224,11 @@
         <v>154800</v>
       </c>
       <c r="S47" s="3">
+        <v>154800</v>
+      </c>
+      <c r="T47" s="3">
         <v>212000</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
       <c r="U47" s="3">
         <v>0</v>
       </c>
@@ -3137,144 +3241,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2394700</v>
+      </c>
+      <c r="E48" s="3">
         <v>2388300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2450900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2462000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2521500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2550700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2522400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2565800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3096600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3071100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3196500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3249000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1288900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1256000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1288700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1365100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1395000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1380400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1410300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1398800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1412800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1493300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1687800</v>
+      </c>
+      <c r="E49" s="3">
         <v>1688200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1695500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1698100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1828900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1824100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1849200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1850000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1996700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1986600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2003500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1923200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1930000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1937200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1948400</v>
-      </c>
-      <c r="R49" s="3">
-        <v>1965100</v>
       </c>
       <c r="S49" s="3">
         <v>1965100</v>
       </c>
       <c r="T49" s="3">
+        <v>1965100</v>
+      </c>
+      <c r="U49" s="3">
         <v>1972900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1989000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1983200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1956800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2011700</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>82300</v>
+      </c>
+      <c r="E52" s="3">
         <v>68500</v>
-      </c>
-      <c r="E52" s="3">
-        <v>69100</v>
       </c>
       <c r="F52" s="3">
         <v>69100</v>
       </c>
       <c r="G52" s="3">
+        <v>69100</v>
+      </c>
+      <c r="H52" s="3">
         <v>70100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>71700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>73600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>59000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>98100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>114600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>99200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>99700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>132500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>128000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>124800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>126900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>124500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1178000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1053100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1039800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1007700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>887800</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5299400</v>
+      </c>
+      <c r="E54" s="3">
         <v>5365300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5356300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5316800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5755300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5801500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5563800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6124400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6393300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6267100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6428000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6325600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4522000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4479400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4521100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4615500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4670800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5580500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5416600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5386400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5718800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5675600</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3794,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>108600</v>
+      </c>
+      <c r="E57" s="3">
         <v>99200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>101900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>96600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>101200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>107800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>112500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>129600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>94600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>103000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>109600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>105000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>113700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>99300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>105400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>120600</v>
-      </c>
-      <c r="S57" s="3">
-        <v>88000</v>
       </c>
       <c r="T57" s="3">
         <v>88000</v>
       </c>
       <c r="U57" s="3">
+        <v>88000</v>
+      </c>
+      <c r="V57" s="3">
         <v>74200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>70600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>86900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3742,22 +3875,22 @@
         <v>21200</v>
       </c>
       <c r="E58" s="3">
+        <v>21200</v>
+      </c>
+      <c r="F58" s="3">
         <v>21300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>21400</v>
       </c>
       <c r="G58" s="3">
         <v>21400</v>
       </c>
       <c r="H58" s="3">
+        <v>21400</v>
+      </c>
+      <c r="I58" s="3">
         <v>21500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>20700</v>
-      </c>
-      <c r="J58" s="3">
-        <v>20300</v>
       </c>
       <c r="K58" s="3">
         <v>20300</v>
@@ -3766,315 +3899,330 @@
         <v>20300</v>
       </c>
       <c r="M58" s="3">
+        <v>20300</v>
+      </c>
+      <c r="N58" s="3">
         <v>300</v>
-      </c>
-      <c r="N58" s="3">
-        <v>200</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
       </c>
       <c r="P58" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>983200</v>
+      </c>
+      <c r="E59" s="3">
         <v>989200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>917700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>891400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>967700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>923200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>884100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1162100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1065600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>982200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1009300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>940900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>615900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>619100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>593200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>612800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>569000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>623000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>552700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>547400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>547900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>586000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1112900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1109600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1040900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1009400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1090200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1052500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1017300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1312000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1180500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1105500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1119200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1046100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>729800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>718800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>699000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>733900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>657500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>711600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>636300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>624700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>641700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>666800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5583800</v>
+      </c>
+      <c r="E61" s="3">
         <v>5716700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5720400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5604300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5550900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5573900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5257100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5257000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5108600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5111700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5341000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5293400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5277100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5274500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5272100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5270900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5266200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5264300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5109700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5112900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5110000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5108300</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1796600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1826800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1847200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1833800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1896800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1914000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1897300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1918900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2158800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2150100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2182700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2241900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>616800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>626100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>628900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>604400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>605400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>888800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>887100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>883400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>898000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>895600</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8504400</v>
+      </c>
+      <c r="E66" s="3">
         <v>8662900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8618300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8457100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8548700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8551800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8183100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8626700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8600800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8512400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8788400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8736500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6784000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6772600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6752000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6767200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6686100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7017000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6784400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6766000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6799600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6853800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6373300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6437300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6396500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6271900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5939500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5907400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5771500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5634300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5349600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5376700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5161400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5150500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5000900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5026600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4961500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4892400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4781200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4221200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4159600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4154800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-4125800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-4228700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3205000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3297500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3262000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3140300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2793500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2750300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2619300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2502300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2207500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2245200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2360500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2410900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2262000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2293200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2230900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2151700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2015300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1436500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1367800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1379700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1080800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1178200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-40800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-124600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-332400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-32100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-135900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-137200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-277500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>27100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-215300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-164200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>25700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-65100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-50400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-128400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-541900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-64200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-38300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-30700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>101500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>63100</v>
+      </c>
+      <c r="E83" s="3">
         <v>65600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>62600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>180800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>65000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>62400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>66200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>75800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>77800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>76200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>80200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>75100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>74700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>77400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>82800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>84100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>89100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>81100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>155800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>77500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>86000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>85800</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E89" s="3">
         <v>78000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-107900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-124300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-22400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-91000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>74200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-98600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>145200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>14200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>102800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-47700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>66800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>54600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>60800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>87000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>92200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-19100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-49700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>120100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-32700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-31800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-17900</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-218400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>76500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-51100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-28200</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>2100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-74800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-164600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-101900</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-73300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-32300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-29500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-29700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-25300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>185500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-35900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-85700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-57600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-49100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-27600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-98300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-47100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-31000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-27300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-86600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-26900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-41000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>16300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>139800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-43000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6051,11 +6284,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -6063,31 +6296,34 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-29900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-50200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-282100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-281700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-400</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-135500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>58600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-26700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>306600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>144600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>17500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>148000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>60300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>21500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>30500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-67400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>11900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-324000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-311100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-107300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-102400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>16300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-6000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-8700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-7600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>6200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>3600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-5000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-188900</v>
+      </c>
+      <c r="E102" s="3">
         <v>35500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-78000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-143800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-62500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>184200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>254900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>58600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-31300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>201300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-14300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-11800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>19300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>11600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-64600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>79100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-378900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-341400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>147700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-45200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>CCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,346 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>643400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>525700</v>
+      </c>
+      <c r="F8" s="3">
         <v>742700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>596400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>531100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>370900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>541400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>447500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>314900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>550800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>745200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>653400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>698000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>587100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>747600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>663700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>712000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>598400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>728400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>644400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1215900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>544700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>722600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>669200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>331100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>321200</v>
+      </c>
+      <c r="F9" s="3">
         <v>355400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>316600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>297100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>282400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>300900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>289200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>253800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>350000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>383200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>358200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>363000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>347800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>374800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>361700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>372900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>361300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>370600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>357900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>681200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>329700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>355800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>362300</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>312300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>204500</v>
+      </c>
+      <c r="F10" s="3">
         <v>387300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>279800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>234000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>88500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>240500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>158300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>61100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>200800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>362000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>295200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>335000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>239300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>372800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>302000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>339100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>237100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>357800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>286500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>534700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>215000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>366800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,150 +1180,168 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F14" s="3">
         <v>3200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>18700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>70300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>177500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>11300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>41900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>5400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>130200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>101600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>5800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>5500</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>7800</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>858200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>1600</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>60600</v>
+      </c>
+      <c r="E15" s="3">
+        <v>60400</v>
+      </c>
+      <c r="F15" s="3">
         <v>63100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>65600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>62600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>61900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>65000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>62400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>66200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>75800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>77800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>76200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>80200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>75100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>74700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>77400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>82800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>84100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>89100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>81100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>155800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>77500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>86000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>85800</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>572400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>529300</v>
+      </c>
+      <c r="F17" s="3">
         <v>596000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>547800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>569300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>646900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>524900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>528800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>383500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>715200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>631600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>702000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>621300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>583500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>631100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>612600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>618000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>608200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1487300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>616300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1108500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>524900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>471700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>608500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F18" s="3">
         <v>146700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>48600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-38200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-276000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>16500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-81300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-68600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-164400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>113600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-48600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>76700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>3600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>116500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>51100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>94000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-9800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-758900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>28100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>107400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>19800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>250900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>60700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,363 +1547,395 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3600</v>
+        <v>-26300</v>
       </c>
       <c r="E20" s="3">
-        <v>-12000</v>
+        <v>-6000</v>
       </c>
       <c r="F20" s="3">
         <v>3600</v>
       </c>
       <c r="G20" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I20" s="3">
         <v>6600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>16700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>6500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-4500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-18900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>20000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-26800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-9200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-5800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-35400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>19600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>28400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>25700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>42600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>18200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-10400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>127100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>50800</v>
+      </c>
+      <c r="F21" s="3">
         <v>213400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>102200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>28000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-88700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>98300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-12400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-6900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-107500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>211400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>147600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>78100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>178300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>122700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>141400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>93900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-641400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>134900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>305800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>115600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>326400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>151700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>86600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>82800</v>
+      </c>
+      <c r="F22" s="3">
         <v>83200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>84300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>90200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>92700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>90800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>90600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>88700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>90100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>88600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>106800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>108000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>114900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>96700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>96800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>96800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>97300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>96900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>95500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>187300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>92600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>93100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-92400</v>
+      </c>
+      <c r="F23" s="3">
         <v>67000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-47700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-124800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-362200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-57600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-165400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-161800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-273400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>45000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-182200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-40500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-111800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>6800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-51500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-38200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-87500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-827400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-41700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-37300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-54600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>147400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-27400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F24" s="3">
         <v>1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-6900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-28700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-25000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-29500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-19200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>15800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>13400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>30100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-29100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>57800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-24500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>6900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>4800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>45400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-65100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>16300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-3400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-21800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>39100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-65300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-89700</v>
+      </c>
+      <c r="F26" s="3">
         <v>65500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-40800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-124400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-333500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-32600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-135800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-142600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-289200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>31600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-212400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-11400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-169600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>31300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-58400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-42900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-132800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-762300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-58000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-33900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-32700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>108300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-23800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-65700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-89900</v>
+      </c>
+      <c r="F27" s="3">
         <v>63900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-40800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-124600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-332400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-32100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-135900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-137200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-277500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>27100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-215300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-10900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-164200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>25700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-65100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-50400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-128400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-769900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-64200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-38300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-30700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>101500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2155,32 +2277,32 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>228000</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
+      <c r="V29" s="3">
+        <v>228000</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3600</v>
+        <v>26300</v>
       </c>
       <c r="E32" s="3">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="F32" s="3">
         <v>-3600</v>
       </c>
       <c r="G32" s="3">
+        <v>12000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I32" s="3">
         <v>-6600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-16700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-6500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>4500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>18900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-20000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>26800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>9200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>12900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>5800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>35400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-19600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-28400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-25700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-42600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-18200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>10400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-65700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-89900</v>
+      </c>
+      <c r="F33" s="3">
         <v>63900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-40800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-124600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-332400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-32100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-135900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-137200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-277500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>27100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-215300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-10900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-164200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>25700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-65100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-50400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-128400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-541900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-64200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-38300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-30700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>101500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-65700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-89900</v>
+      </c>
+      <c r="F35" s="3">
         <v>63900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-40800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-124600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-332400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-32100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-135900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-137200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-277500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>27100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-215300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-10900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-164200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>25700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-65100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-50400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-128400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-541900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-64200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-38300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-30700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>101500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2919,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>314600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>431900</v>
+      </c>
+      <c r="F41" s="3">
         <v>410800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>600000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>564000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>642200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>785300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>845000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>662100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>371800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>398900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>341800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>372500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>170500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>182500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>191100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>172300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>153200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>144100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>222400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>163100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>200600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>542000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>394300</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,79 +3069,91 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>584800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>534900</v>
+      </c>
+      <c r="F43" s="3">
         <v>643100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>537300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>489800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>358500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>468300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>430000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>369300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>506300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>709700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>662200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>656400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>636500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>706300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>654000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>638100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>635800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>659500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>633000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>633700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>560800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>593100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>627900</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,150 +3223,168 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>83100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>82500</v>
+      </c>
+      <c r="F45" s="3">
         <v>80600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>83100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>87100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>87000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>81100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>80000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>87300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>771500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>93300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>90900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>99800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>91900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>127000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>158300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>194000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>214600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>170600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>193800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>167500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>203200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>206400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>260700</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>982500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1049300</v>
+      </c>
+      <c r="F46" s="3">
         <v>1134500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1220400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1140900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1087700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1334800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1354900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1118700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1649600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1201900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1094900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1128700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>899000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1015800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1003500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1004300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1003700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>974200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1049200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>964200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>964600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1341400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1282800</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3212,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
-        <v>154800</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
-        <v>154800</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="3">
         <v>154800</v>
@@ -3227,14 +3437,14 @@
         <v>154800</v>
       </c>
       <c r="T47" s="3">
+        <v>154800</v>
+      </c>
+      <c r="U47" s="3">
+        <v>154800</v>
+      </c>
+      <c r="V47" s="3">
         <v>212000</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
-      </c>
-      <c r="V47" s="3">
-        <v>0</v>
-      </c>
       <c r="W47" s="3">
         <v>0</v>
       </c>
@@ -3244,150 +3454,168 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2338700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2373000</v>
+      </c>
+      <c r="F48" s="3">
         <v>2394700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2388300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2450900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2462000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2521500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2550700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2522400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2565800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3096600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3071100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3196500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3249000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1288900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1256000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1288700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1365100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1395000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1380400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1410300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1398800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1412800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1493300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1652000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1675000</v>
+      </c>
+      <c r="F49" s="3">
         <v>1687800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1688200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1695500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1698100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1828900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1824100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1849200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1850000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1996700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1986600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2003500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1923200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1930000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1937200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1948400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1965100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1965100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1972900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1989000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1983200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>1956800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>2011700</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3762,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>83700</v>
+      </c>
+      <c r="F52" s="3">
         <v>82300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>68500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>69100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>69100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>70100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>71700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>73600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>59000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>98100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>114600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>99200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>99700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>132500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>128000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>124800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>126900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>124500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1178000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>1053100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>1039800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>1007700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>887800</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5054200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5181000</v>
+      </c>
+      <c r="F54" s="3">
         <v>5299400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5365300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5356300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5316800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5755300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5801500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5563800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6124400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>6393300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>6267100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6428000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6325600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4522000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4479400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>4521100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4615500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>4670800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>5580500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>5416600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>5386400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>5718800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>5675600</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +4055,472 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>90400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>96800</v>
+      </c>
+      <c r="F57" s="3">
         <v>108600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>99200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>101900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>96600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>101200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>107800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>112500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>129600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>94600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>103000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>109600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>105000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>113700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>99300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>105400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>120600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>88000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>88000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>74200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>70600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>86900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F58" s="3">
         <v>21200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>21200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>21300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>21400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>21400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>21500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>20700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>20300</v>
-      </c>
-      <c r="L58" s="3">
-        <v>20300</v>
       </c>
       <c r="M58" s="3">
         <v>20300</v>
       </c>
       <c r="N58" s="3">
+        <v>20300</v>
+      </c>
+      <c r="O58" s="3">
+        <v>20300</v>
+      </c>
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>9500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>6700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>7000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>905200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>975100</v>
+      </c>
+      <c r="F59" s="3">
         <v>983200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>989200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>917700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>891400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>967700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>923200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>884100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1162100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1065600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>982200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1009300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>940900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>615900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>619100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>593200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>612800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>569000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>623000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>552700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>547400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>547900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>586000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1016700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1093000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1112900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1109600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1040900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1009400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1090200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1052500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1017300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1312000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1180500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1105500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1119200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1046100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>729800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>718800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>699000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>733900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>657500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>711600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>636300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>624700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>641700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>666800</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5575800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5579800</v>
+      </c>
+      <c r="F61" s="3">
         <v>5583800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>5716700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>5720400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>5604300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>5550900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>5573900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5257100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>5257000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>5108600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>5111700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>5341000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>5293400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>5277100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>5274500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>5272100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>5270900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>5266200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>5264300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>5109700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>5112900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>5110000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>5108300</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1804000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1783100</v>
+      </c>
+      <c r="F62" s="3">
         <v>1796600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1826800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1847200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1833800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1896800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1914000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1897300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1918900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2158800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2150100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2182700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2241900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>616800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>626100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>628900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>604400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>605400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>888800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>887100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>883400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>898000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>895600</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8407700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8467000</v>
+      </c>
+      <c r="F66" s="3">
         <v>8504400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8662900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8618300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8457100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8548700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8551800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8183100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8626700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8600800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8512400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8788400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8736500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6784000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6772600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>6752000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6767200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>6686100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>7017000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>6784400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>6766000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>6799600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>6853800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6528900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-6463200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-6373300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-6437300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-6396500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-6271900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-5939500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-5907400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-5771500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-5634300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-5349600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-5376700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-5161400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-5150500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-5000900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-5026600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-4961500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-4892400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-4781200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-4221200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-4159600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-4154800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-4125800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-4228700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3353500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3285900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3205000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3297500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3262000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3140300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2793500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2750300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2619300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2502300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2207500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2245200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2360500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2410900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-2262000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2293200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-2230900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-2151700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-2015300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-1436500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-1367800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-1379700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-1080800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-1178200</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-65700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-89900</v>
+      </c>
+      <c r="F81" s="3">
         <v>63900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-40800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-124600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-332400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-32100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-135900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-137200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-277500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>27100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-215300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-10900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-164200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>25700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-65100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-50400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-128400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-541900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-64200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-38300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-30700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>101500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5812,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>82400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>60400</v>
+      </c>
+      <c r="F83" s="3">
         <v>63100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>65600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>62600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>180800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>65000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>62400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>66200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>75800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>77800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>76200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>80200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>75100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>74700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>77400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>82800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>84100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>89100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>81100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>155800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>77500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>86000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>85800</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>49500</v>
+      </c>
+      <c r="F89" s="3">
         <v>20800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>78000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-107900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-124300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-22400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-91000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>74200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-98600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>145200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>14200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>102800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-47700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>66800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>54600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>60800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>5000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>87000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>92200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-19100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-49700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>120100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6380,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-65600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-32700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-31800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-17900</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-3100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-218400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>76500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-51100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-28200</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-1800</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>2100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-1300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-1700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-74800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-164600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-101900</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6607,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-66200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-73300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-32300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-29500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-17600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-29700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-25300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>185500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-35900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-85700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-57600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-49100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-27600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-98300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-47100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-31000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-27300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-86600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-26900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-41000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>16300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>139800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-43000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6287,43 +6755,49 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-29900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-50200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-282100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-281700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-400</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +7021,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-135500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-7300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>58600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-26700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>306600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-6200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>144600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-5800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>17500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>148000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>60300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>21500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-8400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-2900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>30500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-67400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>11900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-324000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-311100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-107300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-102400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-2800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>16300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-6000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-8700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>4900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-5400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-3600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-7600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>3300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>2400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>1300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>6200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>3600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-117800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>22600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-188900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>35500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-78000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-143800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-62500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>184200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>254900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>58600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-31300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>201300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-14300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-4600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>19300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>11600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-64600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>79100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-378900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-341400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>147700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-45200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>CCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>602900</v>
+      </c>
+      <c r="E8" s="3">
         <v>643400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>525700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>742700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>596400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>531100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>370900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>541400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>447500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>314900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>550800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>745200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>653400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>698000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>587100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>747600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>663700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>712000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>598400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>728400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>644400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1215900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>544700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>722600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>669200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>323500</v>
+      </c>
+      <c r="E9" s="3">
         <v>331100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>321200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>355400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>316600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>297100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>282400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>300900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>289200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>253800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>350000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>383200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>358200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>363000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>347800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>374800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>361700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>372900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>361300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>370600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>357900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>681200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>329700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>355800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>362300</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>279400</v>
+      </c>
+      <c r="E10" s="3">
         <v>312300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>204500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>387300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>279800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>234000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>88500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>240500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>158300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>61100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>200800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>362000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>295200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>335000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>239300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>372800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>302000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>339100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>237100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>357800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>286500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>534700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>215000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>366800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,162 +1203,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E14" s="3">
         <v>24500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>9500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>18700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>70300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>177500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>11300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>41900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>130200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>101600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5500</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>7800</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>858200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1600</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>57800</v>
+      </c>
+      <c r="E15" s="3">
         <v>60600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>60400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>63100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>65600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>62600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>61900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>65000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>62400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>66200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>75800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>77800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>76200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>80200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>75100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>74700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>77400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>82800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>84100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>89100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>81100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>155800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>77500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>86000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>85800</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>541900</v>
+      </c>
+      <c r="E17" s="3">
         <v>572400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>529300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>596000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>547800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>569300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>646900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>524900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>528800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>383500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>715200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>631600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>702000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>621300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>583500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>631100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>612600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>618000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>608200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1487300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>616300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1108500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>524900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>471700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>608500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E18" s="3">
         <v>71000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>146700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>48600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-38200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-276000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>16500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-81300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-68600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-164400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>113600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-48600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>76700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>116500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>51100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>94000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-9800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-758900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>28100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>107400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>19800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>250900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>60700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-26300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-12000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>6600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>16700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-18900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>20000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-26800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-12900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-5800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-35400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>19600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>28400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>25700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>42600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>18200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-10400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>91900</v>
+      </c>
+      <c r="E21" s="3">
         <v>127100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>50800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>213400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>102200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>28000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-88700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>98300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-12400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-107500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>211400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>147600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>78100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>178300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>122700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>141400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>93900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-641400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>134900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>305800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>115600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>326400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>151700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>92900</v>
+      </c>
+      <c r="E22" s="3">
         <v>86600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>82800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>83200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>84300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>90200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>92700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>90800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>90600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>88700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>90100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>88600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>106800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>108000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>114900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>96700</v>
-      </c>
-      <c r="S22" s="3">
-        <v>96800</v>
       </c>
       <c r="T22" s="3">
         <v>96800</v>
       </c>
       <c r="U22" s="3">
+        <v>96800</v>
+      </c>
+      <c r="V22" s="3">
         <v>97300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>96900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>95500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>187300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>92600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>93100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-59700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-41900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-92400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>67000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-47700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-124800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-362200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-57600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-165400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-161800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-273400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>45000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-182200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-40500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-111800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-51500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-38200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-87500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-827400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-41700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-37300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-54600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>147400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-27400</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E24" s="3">
         <v>23400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-6900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-28700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-25000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-29500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-19200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>15800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>30100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-29100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>57800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-24500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>45400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-65100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>16300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-21800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>39100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-65300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-89700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>65500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-40800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-124400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-333500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-32600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-135800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-142600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-289200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>31600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-212400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-169600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>31300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-58400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-42900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-132800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-762300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-58000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-33900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-32700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>108300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-23800</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-65700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-89900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>63900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-40800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-124600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-332400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-32100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-135900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-137200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-277500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>27100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-215300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-164200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>25700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-65100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-50400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-128400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-769900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-64200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-38300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-30700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>101500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2283,17 +2344,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2301,11 +2362,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>228000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E32" s="3">
         <v>26300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>12000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-6600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-16700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>18900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-20000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>26800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>9200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>12900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>5800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>35400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-19600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-28400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-25700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-42600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-18200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>10400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-65700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-89900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>63900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-40800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-124600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-332400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-32100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-135900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-137200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-277500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>27100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-215300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-164200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>25700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-65100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-50400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-128400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-541900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-64200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-38300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-30700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>101500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-65700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-89900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>63900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-40800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-124600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-332400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-32100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-135900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-137200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-277500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>27100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-215300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-164200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>25700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-65100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-50400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-128400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-541900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-64200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-38300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-30700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>101500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>327400</v>
+      </c>
+      <c r="E41" s="3">
         <v>314600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>431900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>410800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>564000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>642200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>785300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>845000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>662100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>371800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>398900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>341800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>372500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>170500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>182500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>191100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>172300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>153200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>144100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>222400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>163100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>200600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>542000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>394300</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,85 +3165,91 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>551800</v>
+      </c>
+      <c r="E43" s="3">
         <v>584800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>534900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>643100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>537300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>489800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>358500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>468300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>430000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>369300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>506300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>709700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>662200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>656400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>636500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>706300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>654000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>638100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>635800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>659500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>633000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>633700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>560800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>593100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>627900</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,162 +3325,171 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>91900</v>
+      </c>
+      <c r="E45" s="3">
         <v>83100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>82500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>80600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>83100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>87100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>87000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>81100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>80000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>87300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>771500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>93300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>90900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>99800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>91900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>127000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>158300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>194000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>214600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>170600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>193800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>167500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>203200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>206400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>260700</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>971100</v>
+      </c>
+      <c r="E46" s="3">
         <v>982500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1049300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1134500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1220400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1140900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1087700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1334800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1354900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1118700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1649600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1201900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1094900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1128700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>899000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1015800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1003500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1004300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1003700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>974200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1049200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>964200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>964600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1341400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1282800</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3428,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
-        <v>154800</v>
+        <v>0</v>
       </c>
       <c r="R47" s="3">
         <v>154800</v>
@@ -3443,11 +3548,11 @@
         <v>154800</v>
       </c>
       <c r="V47" s="3">
+        <v>154800</v>
+      </c>
+      <c r="W47" s="3">
         <v>212000</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
-      </c>
       <c r="X47" s="3">
         <v>0</v>
       </c>
@@ -3460,162 +3565,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2277700</v>
+      </c>
+      <c r="E48" s="3">
         <v>2338700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2373000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2394700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2388300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2450900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2462000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2521500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2550700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2522400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2565800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3096600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3071100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3196500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3249000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1288900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1256000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1288700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1365100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1395000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1380400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1410300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1398800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1412800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1493300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1660000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1652000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1675000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1687800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1688200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1695500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1698100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1828900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1824100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1849200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1850000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1996700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1986600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2003500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1923200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1930000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1937200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1948400</v>
-      </c>
-      <c r="U49" s="3">
-        <v>1965100</v>
       </c>
       <c r="V49" s="3">
         <v>1965100</v>
       </c>
       <c r="W49" s="3">
+        <v>1965100</v>
+      </c>
+      <c r="X49" s="3">
         <v>1972900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1989000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1983200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1956800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2011700</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E52" s="3">
         <v>81000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>83700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>82300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>68500</v>
-      </c>
-      <c r="H52" s="3">
-        <v>69100</v>
       </c>
       <c r="I52" s="3">
         <v>69100</v>
       </c>
       <c r="J52" s="3">
+        <v>69100</v>
+      </c>
+      <c r="K52" s="3">
         <v>70100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>71700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>73600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>59000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>98100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>114600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>99200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>99700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>132500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>128000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>124800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>126900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>124500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1178000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1053100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1039800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1007700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>887800</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4987000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5054200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5181000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5299400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5365300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5356300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5316800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5755300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5801500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5563800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6124400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6393300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6267100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6428000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6325600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4522000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4479400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4521100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4615500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4670800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5580500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5416600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5386400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5718800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5675600</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,117 +4187,121 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E57" s="3">
         <v>90400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>96800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>108600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>99200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>101900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>96600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>101200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>107800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>112500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>129600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>94600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>103000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>109600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>105000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>113700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>99300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>105400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>120600</v>
-      </c>
-      <c r="V57" s="3">
-        <v>88000</v>
       </c>
       <c r="W57" s="3">
         <v>88000</v>
       </c>
       <c r="X57" s="3">
+        <v>88000</v>
+      </c>
+      <c r="Y57" s="3">
         <v>74200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>70600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>86900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>21100</v>
+        <v>21000</v>
       </c>
       <c r="E58" s="3">
         <v>21100</v>
       </c>
       <c r="F58" s="3">
-        <v>21200</v>
+        <v>21100</v>
       </c>
       <c r="G58" s="3">
         <v>21200</v>
       </c>
       <c r="H58" s="3">
+        <v>21200</v>
+      </c>
+      <c r="I58" s="3">
         <v>21300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>21400</v>
       </c>
       <c r="J58" s="3">
         <v>21400</v>
       </c>
       <c r="K58" s="3">
+        <v>21400</v>
+      </c>
+      <c r="L58" s="3">
         <v>21500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>20700</v>
-      </c>
-      <c r="M58" s="3">
-        <v>20300</v>
       </c>
       <c r="N58" s="3">
         <v>20300</v>
@@ -4176,351 +4310,366 @@
         <v>20300</v>
       </c>
       <c r="P58" s="3">
+        <v>20300</v>
+      </c>
+      <c r="Q58" s="3">
         <v>300</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>200</v>
       </c>
       <c r="R58" s="3">
         <v>200</v>
       </c>
       <c r="S58" s="3">
+        <v>200</v>
+      </c>
+      <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>9500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>6700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>7000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>929700</v>
+      </c>
+      <c r="E59" s="3">
         <v>905200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>975100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>983200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>989200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>917700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>891400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>967700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>923200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>884100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1162100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1065600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>982200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1009300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>940900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>615900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>619100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>593200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>612800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>569000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>623000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>552700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>547400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>547900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>586000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1027300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1016700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1093000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1112900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1109600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1040900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1009400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1090200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1052500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1017300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1312000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1180500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1105500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1119200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1046100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>729800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>718800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>699000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>733900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>657500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>711600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>636300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>624700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>641700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>666800</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5571200</v>
+      </c>
+      <c r="E61" s="3">
         <v>5575800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5579800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5583800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5716700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5720400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5604300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5550900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5573900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5257100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5257000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5108600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5111700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5341000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5293400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5277100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5274500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5272100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5270900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5266200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5264300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5109700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5112900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5110000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>5108300</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1761300</v>
+      </c>
+      <c r="E62" s="3">
         <v>1804000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1783100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1796600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1826800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1847200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1833800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1896800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1914000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1897300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1918900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2158800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2150100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2182700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2241900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>616800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>626100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>628900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>604400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>605400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>888800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>887100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>883400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>898000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>895600</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8372000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8407700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8467000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8504400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8662900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8618300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8457100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8548700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8551800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8183100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8626700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8600800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8512400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8788400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8736500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6784000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6772600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6752000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6767200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6686100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7017000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6784400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6766000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6799600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>6853800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6568600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6528900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6463200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6373300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6437300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6396500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6271900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5939500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5907400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5771500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5634300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5349600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5376700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5161400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5150500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5000900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5026600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4961500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4892400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4781200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-4221200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-4159600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-4154800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-4125800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-4228700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3385000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3353500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3285900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3205000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3297500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3262000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3140300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2793500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2750300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2619300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2502300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2207500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2245200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2360500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2410900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2262000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2293200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2230900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2151700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2015300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1436500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1367800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1379700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1080800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-1178200</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-65700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-89900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>63900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-40800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-124600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-332400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-32100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-135900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-137200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-277500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>27100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-215300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-164200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>25700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-65100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-50400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-128400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-541900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-64200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-38300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-30700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>101500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>58700</v>
+      </c>
+      <c r="E83" s="3">
         <v>82400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>60400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>63100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>65600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>62600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>180800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>65000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>62400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>66200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>75800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>77800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>76200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>80200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>75100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>74700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>77400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>82800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>84100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>89100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>81100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>155800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>77500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>86000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>85800</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>94700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-30200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>49500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>20800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>78000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-107900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-124300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-22400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-91000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>74200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-98600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>145200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>14200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>102800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-47700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>66800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>54600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>60800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>5000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>87000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>92200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-19100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-49700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>120100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-45300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-35800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-65600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-32700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-31800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-17900</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-218400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>76500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-51100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-28200</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-1800</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>2100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-74800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-164600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-101900</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-70400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-66200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-73300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-32300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-29500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-17600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-29700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-25300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>185500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-35900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-85700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-57600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-49100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-27600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-98300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-47100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-31000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-27300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-86600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-26900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-41000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>16300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>139800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-43000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6761,11 +6995,11 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-700</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -6773,31 +7007,34 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-29900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-50200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-282100</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-281700</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-400</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-15200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-135500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>58600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-26700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>306600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>144600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>17500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>148000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>60300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>21500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>30500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-67400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>11900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-324000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-311100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-107300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-102400</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>16300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-8700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-7600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>6200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>3600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-117800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>22600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-188900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>35500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-78000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-143800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-62500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>184200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>254900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>58600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-31300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>201300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-14300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-11800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>19300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>11600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-64600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>79100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-378900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-341400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>147700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-45200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>CCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,384 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>545400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>709200</v>
+      </c>
+      <c r="F8" s="3">
         <v>602900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>643400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>525700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>742700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>596400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>531100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>370900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>541400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>447500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>314900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>550800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>745200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>653400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>698000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>587100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>747600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>663700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>712000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>598400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>728400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>644400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1215900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>544700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>722600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>669200</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>344900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>349900</v>
+      </c>
+      <c r="F9" s="3">
         <v>323500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>331100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>321200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>355400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>316600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>297100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>282400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>300900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>289200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>253800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>350000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>383200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>358200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>363000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>347800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>374800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>361700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>372900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>361300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>370600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>357900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>681200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>329700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>355800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>362300</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>200600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>359300</v>
+      </c>
+      <c r="F10" s="3">
         <v>279400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>312300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>204500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>387300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>279800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>234000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>88500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>240500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>158300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>61100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>200800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>362000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>295200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>335000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>239300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>372800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>302000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>339100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>237100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>357800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>286500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>534700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>215000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>366800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,168 +1239,186 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>20200</v>
+      </c>
+      <c r="F14" s="3">
         <v>1600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>24500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>9500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>3200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>18700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>70300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>177500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>11300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>41900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>5400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>130200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>101600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>5800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>5500</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>7800</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>858200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>1600</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>75000</v>
+      </c>
+      <c r="F15" s="3">
         <v>57800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>60600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>60400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>63100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>65600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>62600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>61900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>65000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>62400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>66200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>75800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>77800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>76200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>80200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>75100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>74700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>77400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>82800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>84100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>89100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>81100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>155800</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>77500</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>86000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AD15" s="3">
         <v>85800</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1444,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>479300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>605900</v>
+      </c>
+      <c r="F17" s="3">
         <v>541900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>572400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>529300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>596000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>547800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>569300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>646900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>524900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>528800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>383500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>715200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>631600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>702000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>621300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>583500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>631100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>612600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>618000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>608200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1487300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>616300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1108500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>524900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>471700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>608500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>103300</v>
+      </c>
+      <c r="F18" s="3">
         <v>61000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>71000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>146700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>48600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-38200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-276000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>16500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-81300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-68600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-164400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>113600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-48600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>76700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>3600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>116500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>51100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>94000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-9800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-758900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>28100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>107400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>19800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>250900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>60700</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,408 +1648,440 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-27900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-26300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-6000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-12000</v>
       </c>
       <c r="I20" s="3">
         <v>3600</v>
       </c>
       <c r="J20" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="K20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L20" s="3">
         <v>6600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>16700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>6500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-4500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-18900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>20000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-26800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-9200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-12900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-5800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-35400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>19600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>28400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>25700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>42600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>18200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-10400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>148100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>220100</v>
+      </c>
+      <c r="F21" s="3">
         <v>91900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>127100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>50800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>213400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>102200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>28000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-88700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>98300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-12400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-6900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-107500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>211400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>147600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>78100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>178300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>122700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>141400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>93900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-641400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>134900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>305800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>115600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>326400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>151700</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>102800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100400</v>
+      </c>
+      <c r="F22" s="3">
         <v>92900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>86600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>82800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>83200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>84300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>90200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>92700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>90800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>90600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>88700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>90100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>88600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>106800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>108000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>114900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>96700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>96800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>96800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>97300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>96900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>95500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>187300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>92600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>93100</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>27800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-59700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-41900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-92400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>67000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-47700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-124800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-362200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-57600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-165400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-161800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-273400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>45000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-182200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-40500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-111800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>6800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-51500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-38200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-87500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-827400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-41700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-37300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-54600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>147400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-27400</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-71600</v>
+      </c>
+      <c r="F24" s="3">
         <v>-21000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>23400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-2700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-6900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-28700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-25000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-29500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-19200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>15800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>13400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>30100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-29100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>57800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-24500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>6900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>4800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>45400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-65100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>16300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>-21800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>39100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>99400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-38800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-65300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-89700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>65500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-40800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-124400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-333500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-32600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-135800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-142600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-289200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>31600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-212400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-11400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-169600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>31300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-58400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-42900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-132800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-762300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-58000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-33900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-32700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>108300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-23800</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>98700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-39800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-65700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-89900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>63900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-40800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-124600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-332400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-32100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-135900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-137200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-277500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>27100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-215300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-10900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-164200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>25700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-65100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-50400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-128400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-769900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-64200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-38300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-30700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>101500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2347,32 +2468,32 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
-        <v>228000</v>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
+      <c r="Y29" s="3">
+        <v>228000</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2676,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F32" s="3">
         <v>27900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>26300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>6000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>12000</v>
       </c>
       <c r="I32" s="3">
         <v>-3600</v>
       </c>
       <c r="J32" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="L32" s="3">
         <v>-6600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-16700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-6500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>4500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>18900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-20000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>26800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>9200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>12900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>5800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>35400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-19600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-28400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-25700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-42600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-18200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>10400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>98700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-39800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-65700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-89900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>63900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-40800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-124600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-332400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-32100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-135900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-137200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-277500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>27100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-215300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-10900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-164200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>25700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-65100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-50400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-128400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-541900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-64200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-38300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-30700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>101500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>98700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-39800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-65700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-89900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>63900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-40800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-124600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-332400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-32100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-135900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-137200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-277500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>27100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-215300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-10900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-164200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>25700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-65100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-50400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-128400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-541900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-64200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-38300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-30700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>101500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3179,96 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>340000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>286800</v>
+      </c>
+      <c r="F41" s="3">
         <v>327400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>314600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>431900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>410800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>600000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>564000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>642200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>785300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>845000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>662100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>371800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>398900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>341800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>372500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>170500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>182500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>191100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>172300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>153200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>144100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>222400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>163100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>200600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>542000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>394300</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,88 +3347,100 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>523000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>619800</v>
+      </c>
+      <c r="F43" s="3">
         <v>551800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>584800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>534900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>643100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>537300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>489800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>358500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>468300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>430000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>369300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>506300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>709700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>662200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>656400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>636500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>706300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>654000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>638100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>635800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>659500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>633000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>633700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>560800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>593100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>627900</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,168 +3519,186 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>105900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>214300</v>
+      </c>
+      <c r="F45" s="3">
         <v>91900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>83100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>82500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>80600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>83100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>87100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>87000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>81100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>80000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>87300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>771500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>93300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>90900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>99800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>91900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>127000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>158300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>194000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>214600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>170600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>193800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>167500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>203200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>206400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>260700</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>968800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1120900</v>
+      </c>
+      <c r="F46" s="3">
         <v>971100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>982500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1049300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1134500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1220400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1140900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1087700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1334800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1354900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1118700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1649600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1201900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1094900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1128700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>899000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1015800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1003500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1004300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1003700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>974200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1049200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>964200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>964600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>1341400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>1282800</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3536,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
-        <v>154800</v>
+        <v>0</v>
       </c>
       <c r="S47" s="3">
-        <v>154800</v>
+        <v>0</v>
       </c>
       <c r="T47" s="3">
         <v>154800</v>
@@ -3551,14 +3760,14 @@
         <v>154800</v>
       </c>
       <c r="W47" s="3">
+        <v>154800</v>
+      </c>
+      <c r="X47" s="3">
+        <v>154800</v>
+      </c>
+      <c r="Y47" s="3">
         <v>212000</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>0</v>
-      </c>
       <c r="Z47" s="3">
         <v>0</v>
       </c>
@@ -3568,168 +3777,186 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2292100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2267200</v>
+      </c>
+      <c r="F48" s="3">
         <v>2277700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2338700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2373000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2394700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2388300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2450900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2462000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2521500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2550700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2522400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2565800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3096600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3071100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3196500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>3249000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1288900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1256000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1288700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1365100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1395000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1380400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1410300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>1398800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>1412800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>1493300</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1612100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1624800</v>
+      </c>
+      <c r="F49" s="3">
         <v>1660000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1652000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1675000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1687800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1688200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1695500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1698100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1828900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1824100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1849200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1850000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1996700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1986600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2003500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1923200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1930000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1937200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1948400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1965100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1965100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>1972900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>1989000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>1983200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>1956800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>2011700</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4121,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>75900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>73100</v>
+      </c>
+      <c r="F52" s="3">
         <v>78100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>81000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>83700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>82300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>68500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>69100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>69100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>70100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>71700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>73600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>59000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>98100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>114600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>99200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>99700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>132500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>128000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>124800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>126900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>124500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>1178000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>1053100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>1039800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>1007700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>887800</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4948900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5086000</v>
+      </c>
+      <c r="F54" s="3">
         <v>4987000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5054200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5181000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5299400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5365300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5356300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5316800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5755300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5801500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5563800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6124400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6393300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>6267100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>6428000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>6325600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4522000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>4479400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>4521100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>4615500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>4670800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>5580500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>5416600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>5386400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>5718800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>5675600</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4447,526 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>86500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>101600</v>
+      </c>
+      <c r="F57" s="3">
         <v>76500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>90400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>96800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>108600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>99200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>101900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>96600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>101200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>107800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>112500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>129600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>94600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>103000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>109600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>105000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>113700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>99300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>105400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>120600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>88000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>88000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>74200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>70600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>86900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F58" s="3">
         <v>21000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>21100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>21100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>21200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>21200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>21300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>21400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>21400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>21500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>20700</v>
-      </c>
-      <c r="N58" s="3">
-        <v>20300</v>
-      </c>
-      <c r="O58" s="3">
-        <v>20300</v>
       </c>
       <c r="P58" s="3">
         <v>20300</v>
       </c>
       <c r="Q58" s="3">
+        <v>20300</v>
+      </c>
+      <c r="R58" s="3">
+        <v>20300</v>
+      </c>
+      <c r="S58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>9500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>6700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>7000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>903700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>994700</v>
+      </c>
+      <c r="F59" s="3">
         <v>929700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>905200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>975100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>983200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>989200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>917700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>891400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>967700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>923200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>884100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1162100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1065600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>982200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1009300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>940900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>615900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>619100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>593200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>612800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>569000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>623000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>552700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>547400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>547900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>586000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1017100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1121500</v>
+      </c>
+      <c r="F60" s="3">
         <v>1027300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1016700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1093000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1112900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1109600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1040900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1009400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1090200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1052500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1017300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1312000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1180500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1105500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1119200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1046100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>729800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>718800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>699000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>733900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>657500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>711600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>636300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>624700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>641700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>666800</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5564900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5568800</v>
+      </c>
+      <c r="F61" s="3">
         <v>5571200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>5575800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>5579800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>5583800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>5716700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>5720400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5604300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>5550900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>5573900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>5257100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>5257000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>5108600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>5111700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>5341000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>5293400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>5277100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>5274500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>5272100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>5270900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>5266200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>5264300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>5109700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>5112900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>5110000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>5108300</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1658500</v>
+      </c>
+      <c r="F62" s="3">
         <v>1761300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1804000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1783100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1796600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1826800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1847200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1833800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1896800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1914000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1897300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1918900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2158800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2150100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>2182700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>2241900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>616800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>626100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>628900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>604400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>605400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>888800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>887100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>883400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>898000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>895600</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8295200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8361700</v>
+      </c>
+      <c r="F66" s="3">
         <v>8372000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8407700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8467000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8504400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8662900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8618300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8457100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8548700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8551800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8183100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8626700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8600800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>8512400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>8788400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>8736500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6784000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>6772600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>6752000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>6767200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>6686100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>7017000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>6784400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>6766000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>6799600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>6853800</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6504900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-6470000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-6568600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-6528900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-6463200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-6373300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-6437300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-6396500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-6271900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-5939500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-5907400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-5771500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-5634300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-5349600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-5376700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-5161400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-5150500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-5000900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-5026600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-4961500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-4892400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-4781200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-4221200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-4159600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-4154800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-4125800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-4228700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3346300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3275700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3385000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3353500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3285900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3205000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3297500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3262000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3140300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2793500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2750300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2619300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2502300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2207500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-2245200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2360500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-2410900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-2262000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-2293200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-2230900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-2151700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-2015300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-1436500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-1367800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-1379700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-1080800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-1178200</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>98700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-39800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-65700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-89900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>63900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-40800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-124600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-332400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-32100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-135900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-137200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-277500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>27100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-215300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-10900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-164200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>25700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-65100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-50400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-128400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-541900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-64200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-38300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-30700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>101500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6408,96 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>91800</v>
+      </c>
+      <c r="F83" s="3">
         <v>58700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>82400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>60400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>63100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>65600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>62600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>180800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>65000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>62400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>66200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>75800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>77800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>76200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>80200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>75100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>74700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>77400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>82800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>84100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>89100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>81100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>155800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>77500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>86000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>85800</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F89" s="3">
         <v>94700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-30200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>49500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>20800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>78000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-107900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-124300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-22400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-91000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>74200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-98600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>145200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>14200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>102800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-47700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>66800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>54600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>60800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>5000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>87000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>92200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-19100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-49700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>120100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +7042,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-43300</v>
+        <v>-44100</v>
       </c>
       <c r="E91" s="3">
-        <v>-45300</v>
+        <v>-70300</v>
       </c>
       <c r="F91" s="3">
-        <v>-35800</v>
+        <v>-71100</v>
       </c>
       <c r="G91" s="3">
-        <v>-65600</v>
+        <v>-67000</v>
       </c>
       <c r="H91" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-84100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-32700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-31800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-17900</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-3100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-218400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>76500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-51100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-28200</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-1800</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>2100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-74800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-164600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-101900</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7296,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-70400</v>
+        <v>49100</v>
       </c>
       <c r="E94" s="3">
         <v>-66200</v>
       </c>
       <c r="F94" s="3">
+        <v>-70400</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-66200</v>
+      </c>
+      <c r="H94" s="3">
         <v>-18800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-73300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-32300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-29500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-17600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-29700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-25300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>185500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-35900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-85700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-57600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-49100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-27600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-98300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-47100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-31000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-27300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-86600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-26900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-41000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>16300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>139800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-43000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6998,43 +7465,49 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-700</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-29900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-50200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-282100</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-281700</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-400</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AD96" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7758,268 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-6200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-15200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-5800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-135500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-7300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>58600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-26700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>306600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-6200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>144600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-5800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>17500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>148000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>60300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>21500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-8400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-2900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>30500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-67400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>11900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-324000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-311100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-107300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-102400</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-4800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-6100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-2300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-2800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>16300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-6000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>1400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-8700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>4900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-1900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-3600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-7600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>3300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>2400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>1300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>6200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>3600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-5000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="F102" s="3">
         <v>13300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-117800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>22600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-188900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>35500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-78000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-143800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-62500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>184200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>254900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>58600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-31300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>201300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-14300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-11800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-4600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>19300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>11600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-64600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>79100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-378900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-341400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>147700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-45200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CCO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>637200</v>
+      </c>
+      <c r="E8" s="3">
         <v>545400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>709200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>602900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>643400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>525700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>742700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>596400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>531100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>370900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>541400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>447500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>314900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>550800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>745200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>653400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>698000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>587100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>747600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>663700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>712000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>598400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>728400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>644400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1215900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>544700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>722600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>669200</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>344900</v>
+        <v>346600</v>
       </c>
       <c r="E9" s="3">
+        <v>344300</v>
+      </c>
+      <c r="F9" s="3">
         <v>349900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>323500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>331100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>321200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>355400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>316600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>297100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>282400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>300900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>289200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>253800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>350000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>383200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>358200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>363000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>347800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>374800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>361700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>372900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>361300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>370600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>357900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>681200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>329700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>355800</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>362300</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>200600</v>
+        <v>290600</v>
       </c>
       <c r="E10" s="3">
+        <v>201100</v>
+      </c>
+      <c r="F10" s="3">
         <v>359300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>279400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>312300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>204500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>387300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>279800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>234000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>88500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>240500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>158300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>61100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>200800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>362000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>295200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>335000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>239300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>372800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>302000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>339100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>237100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>357800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>286500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>534700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>215000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>366800</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,180 +1262,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>500</v>
+      </c>
+      <c r="F14" s="3">
+        <v>20200</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H14" s="3">
+        <v>24500</v>
+      </c>
+      <c r="I14" s="3">
+        <v>9500</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K14" s="3">
+        <v>18700</v>
+      </c>
+      <c r="L14" s="3">
+        <v>70300</v>
+      </c>
+      <c r="M14" s="3">
+        <v>177500</v>
+      </c>
+      <c r="N14" s="3">
+        <v>11300</v>
+      </c>
+      <c r="O14" s="3">
+        <v>41900</v>
+      </c>
+      <c r="P14" s="3">
+        <v>5400</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>130200</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>101600</v>
+      </c>
+      <c r="T14" s="3">
+        <v>5800</v>
+      </c>
+      <c r="U14" s="3">
+        <v>5500</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>7800</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>858200</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>20200</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G14" s="3">
-        <v>24500</v>
-      </c>
-      <c r="H14" s="3">
-        <v>9500</v>
-      </c>
-      <c r="I14" s="3">
-        <v>3200</v>
-      </c>
-      <c r="J14" s="3">
-        <v>18700</v>
-      </c>
-      <c r="K14" s="3">
-        <v>70300</v>
-      </c>
-      <c r="L14" s="3">
-        <v>177500</v>
-      </c>
-      <c r="M14" s="3">
-        <v>11300</v>
-      </c>
-      <c r="N14" s="3">
-        <v>41900</v>
-      </c>
-      <c r="O14" s="3">
-        <v>5400</v>
-      </c>
-      <c r="P14" s="3">
-        <v>130200</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>101600</v>
-      </c>
-      <c r="S14" s="3">
-        <v>5800</v>
-      </c>
-      <c r="T14" s="3">
-        <v>5500</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>7800</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>858200</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>1600</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
       <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E15" s="3">
         <v>73000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>75000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>57800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>60600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>60400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>63100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>65600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>62600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>61900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>65000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>62400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>66200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>75800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>77800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>76200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>80200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>75100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>74700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>77400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>82800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>84100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>89100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>81100</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>155800</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>77500</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>86000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>85800</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>582700</v>
+      </c>
+      <c r="E17" s="3">
         <v>479300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>605900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>541900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>572400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>529300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>596000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>547800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>569300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>646900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>524900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>528800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>383500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>715200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>631600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>702000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>621300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>583500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>631100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>612600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>618000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>608200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1487300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>616300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1108500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>524900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>471700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>608500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E18" s="3">
         <v>66100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>103300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>61000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>71000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>146700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>48600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-38200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-276000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-81300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-68600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-164400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>113600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-48600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>76700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>116500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>51100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>94000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-9800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-758900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>28100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>107400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>19800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>250900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>60700</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,438 +1683,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E20" s="3">
         <v>9000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>25000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-27900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-26300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-12000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>16700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>20000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-26800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-9200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-12900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-5800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-35400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>19600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>28400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>25700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>42600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>18200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-10400</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>138000</v>
+      </c>
+      <c r="E21" s="3">
         <v>148100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>220100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>91900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>127100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>50800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>213400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>102200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>28000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-88700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>98300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-12400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-107500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>211400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>147600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>78100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>178300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>122700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>141400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>93900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-641400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>134900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>305800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>115600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>326400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>151700</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>105200</v>
+      </c>
+      <c r="E22" s="3">
         <v>102800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>92900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>86600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>82800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>83200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>84300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>90200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>92700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>90800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>90600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>88700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>90100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>88600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>106800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>108000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>114900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>96700</v>
-      </c>
-      <c r="V22" s="3">
-        <v>96800</v>
       </c>
       <c r="W22" s="3">
         <v>96800</v>
       </c>
       <c r="X22" s="3">
+        <v>96800</v>
+      </c>
+      <c r="Y22" s="3">
         <v>97300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>96900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>95500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>187300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>92600</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>93100</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-27600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>27800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-59700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-41900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-92400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>67000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-47700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-124800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-362200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-57600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-165400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-161800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-273400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>45000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-182200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-40500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-111800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-51500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-38200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-87500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-827400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-41700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-37300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-54600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>147400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-27400</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E24" s="3">
         <v>7800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-71600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-21000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>23400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-6900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-28700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-25000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-29500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-19200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>15800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>30100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-29100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>57800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-24500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>6900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>45400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-65100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>16300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-3400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-21800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>39100</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-35400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>99400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-38800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-65300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-89700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>65500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-40800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-124400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-333500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-32600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-135800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-142600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-289200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>31600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-212400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-11400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-169600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>31300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-58400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-42900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-132800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-762300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-58000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-33900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-32700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>108300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-23800</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-34900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>98700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-39800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-65700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-89900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>63900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-40800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-124600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-332400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-32100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-135900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-137200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-277500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>27100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-215300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-10900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-164200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>25700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-65100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-50400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-128400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-769900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-64200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-38300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-30700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>101500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2474,17 +2535,17 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2492,11 +2553,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>228000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-9000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-25000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>27900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>26300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>12000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-16700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>18900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-20000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>26800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>9200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>12900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>5800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>35400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-19600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-28400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-25700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-42600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-18200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>10400</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-34900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>98700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-39800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-65700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-89900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>63900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-40800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-124600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-332400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-32100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-135900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-137200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-277500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>27100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-215300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-10900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-164200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>25700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-65100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-50400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-128400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-541900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-64200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-38300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-30700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>101500</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-34900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>98700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-39800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-65700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-89900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>63900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-40800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-124600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-332400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-32100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-135900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-137200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-277500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>27100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-215300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-10900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-164200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>25700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-65100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-50400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-128400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-541900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-64200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-38300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-30700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>101500</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>232900</v>
+      </c>
+      <c r="E41" s="3">
         <v>340000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>286800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>327400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>314600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>431900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>410800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>564000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>642200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>785300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>845000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>662100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>371800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>398900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>341800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>372500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>170500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>182500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>191100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>172300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>153200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>144100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>222400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>163100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>200600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>542000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>394300</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,94 +3443,100 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>525600</v>
+      </c>
+      <c r="E43" s="3">
         <v>523000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>619800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>551800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>584800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>534900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>643100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>537300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>489800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>358500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>468300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>430000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>369300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>506300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>709700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>662200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>656400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>636500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>706300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>654000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>638100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>635800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>659500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>633000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>633700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>560800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>593100</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>627900</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,180 +3621,189 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>133300</v>
+      </c>
+      <c r="E45" s="3">
         <v>105900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>214300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>91900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>83100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>82500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>80600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>83100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>87100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>87000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>81100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>80000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>87300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>771500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>93300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>90900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>99800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>91900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>127000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>158300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>194000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>214600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>170600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>193800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>167500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>203200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>206400</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>260700</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>891800</v>
+      </c>
+      <c r="E46" s="3">
         <v>968800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1120900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>971100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>982500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1049300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1134500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1220400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1140900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1087700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1334800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1354900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1118700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1649600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1201900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1094900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1128700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>899000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1015800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1003500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1004300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1003700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>974200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1049200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>964200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>964600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1341400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1282800</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3751,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="3">
-        <v>154800</v>
+        <v>0</v>
       </c>
       <c r="U47" s="3">
         <v>154800</v>
@@ -3766,11 +3871,11 @@
         <v>154800</v>
       </c>
       <c r="Y47" s="3">
+        <v>154800</v>
+      </c>
+      <c r="Z47" s="3">
         <v>212000</v>
       </c>
-      <c r="Z47" s="3">
-        <v>0</v>
-      </c>
       <c r="AA47" s="3">
         <v>0</v>
       </c>
@@ -3783,180 +3888,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2215300</v>
+      </c>
+      <c r="E48" s="3">
         <v>2292100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2267200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2277700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2338700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2373000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2394700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2388300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2450900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2462000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2521500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2550700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2522400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2565800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3096600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3071100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3196500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3249000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1288900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1256000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1288700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1365100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1395000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1380400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1410300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1398800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1412800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1493300</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1599300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1612100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1624800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1660000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1652000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1675000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1687800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1688200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1695500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1698100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1828900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1824100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1849200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1850000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1996700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1986600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2003500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1923200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1930000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1937200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1948400</v>
-      </c>
-      <c r="X49" s="3">
-        <v>1965100</v>
       </c>
       <c r="Y49" s="3">
         <v>1965100</v>
       </c>
       <c r="Z49" s="3">
+        <v>1965100</v>
+      </c>
+      <c r="AA49" s="3">
         <v>1972900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1989000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1983200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1956800</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>2011700</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>133400</v>
+      </c>
+      <c r="E52" s="3">
         <v>75900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>73100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>78100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>81000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>83700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>82300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>68500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>69100</v>
       </c>
       <c r="L52" s="3">
         <v>69100</v>
       </c>
       <c r="M52" s="3">
+        <v>69100</v>
+      </c>
+      <c r="N52" s="3">
         <v>70100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>71700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>73600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>59000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>98100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>114600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>99200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>99700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>132500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>128000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>124800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>126900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>124500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1178000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1053100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1039800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1007700</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>887800</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4839700</v>
+      </c>
+      <c r="E54" s="3">
         <v>4948900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5086000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4987000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5054200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5181000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5299400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5365300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5356300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5316800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5755300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5801500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5563800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6124400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6393300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6267100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6428000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6325600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4522000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4479400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4521100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4615500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4670800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5580500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5416600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>5386400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>5718800</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>5675600</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,135 +4579,139 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E57" s="3">
         <v>86500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>101600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>76500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>90400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>96800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>108600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>99200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>101900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>96600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>101200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>107800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>112500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>129600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>94600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>103000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>109600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>105000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>113700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>99300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>105400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>120600</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>88000</v>
       </c>
       <c r="Z57" s="3">
         <v>88000</v>
       </c>
       <c r="AA57" s="3">
+        <v>88000</v>
+      </c>
+      <c r="AB57" s="3">
         <v>74200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>70600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>86900</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E58" s="3">
         <v>27000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>25200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>21000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>21100</v>
       </c>
       <c r="H58" s="3">
         <v>21100</v>
       </c>
       <c r="I58" s="3">
-        <v>21200</v>
+        <v>21100</v>
       </c>
       <c r="J58" s="3">
         <v>21200</v>
       </c>
       <c r="K58" s="3">
+        <v>21200</v>
+      </c>
+      <c r="L58" s="3">
         <v>21300</v>
-      </c>
-      <c r="L58" s="3">
-        <v>21400</v>
       </c>
       <c r="M58" s="3">
         <v>21400</v>
       </c>
       <c r="N58" s="3">
+        <v>21400</v>
+      </c>
+      <c r="O58" s="3">
         <v>21500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>20700</v>
-      </c>
-      <c r="P58" s="3">
-        <v>20300</v>
       </c>
       <c r="Q58" s="3">
         <v>20300</v>
@@ -4586,387 +4720,402 @@
         <v>20300</v>
       </c>
       <c r="S58" s="3">
+        <v>20300</v>
+      </c>
+      <c r="T58" s="3">
         <v>300</v>
-      </c>
-      <c r="T58" s="3">
-        <v>200</v>
       </c>
       <c r="U58" s="3">
         <v>200</v>
       </c>
       <c r="V58" s="3">
+        <v>200</v>
+      </c>
+      <c r="W58" s="3">
         <v>300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>9500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>6700</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>7000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>859400</v>
+      </c>
+      <c r="E59" s="3">
         <v>903700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>994700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>929700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>905200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>975100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>983200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>989200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>917700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>891400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>967700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>923200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>884100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1162100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1065600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>982200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1009300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>940900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>615900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>619100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>593200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>612800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>569000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>623000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>552700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>547400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>547900</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>586000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>965000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1017100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1121500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1027300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1016700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1093000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1112900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1109600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1040900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1009400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1090200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1052500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1017300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1312000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1180500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1105500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1119200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1046100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>729800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>718800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>699000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>733900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>657500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>711600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>636300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>624700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>641700</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>666800</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5561900</v>
+      </c>
+      <c r="E61" s="3">
         <v>5564900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5568800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5571200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5575800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5579800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5583800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5716700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5720400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5604300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5550900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5573900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5257100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5257000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5108600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5111700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5341000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5293400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5277100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5274500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5272100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5270900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5266200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5264300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>5109700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>5112900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>5110000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>5108300</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1718200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1700700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1658500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1761300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1804000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1783100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1796600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1826800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1847200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1833800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1896800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1914000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1897300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1918900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2158800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2150100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2182700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2241900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>616800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>626100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>628900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>604400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>605400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>888800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>887100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>883400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>898000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>895600</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8255700</v>
+      </c>
+      <c r="E66" s="3">
         <v>8295200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8361700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8372000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8407700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8467000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8504400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8662900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8618300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8457100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8548700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8551800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8183100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8626700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8600800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8512400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8788400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8736500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6784000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6772600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6752000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6767200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6686100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>7017000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>6784400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>6766000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>6799600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>6853800</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6542200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6504900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6470000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6568600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6528900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6463200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6373300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6437300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6396500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6271900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5939500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5907400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5771500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5634300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5349600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5376700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5161400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5150500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5000900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-5026600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-4961500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-4892400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-4781200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-4221200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-4159600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-4154800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-4125800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-4228700</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3416000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3346300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3275700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3385000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3353500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3285900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3205000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3297500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3262000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3140300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2793500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2750300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2619300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2502300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2207500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2245200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2360500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2410900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2262000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2293200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-2230900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-2151700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-2015300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1436500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-1367800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-1379700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-1080800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-1178200</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-34900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>98700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-39800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-65700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-89900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>63900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-40800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-124600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-332400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-32100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-135900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-137200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-277500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>27100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-215300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-10900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-164200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>25700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-65100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-50400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-128400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-541900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-64200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-38300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-30700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>101500</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E83" s="3">
         <v>73000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>91800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>58700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>82400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>60400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>63100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>65600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>62600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>180800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>65000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>62400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>66200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>75800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>77800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>76200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>80200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>75100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>74700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>77400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>82800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>84100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>89100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>81100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>155800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>77500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>86000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>85800</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-65300</v>
+      </c>
+      <c r="E89" s="3">
         <v>10900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>26000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>94700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-30200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>49500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>20800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>78000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-107900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-124300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-22400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-91000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>74200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-98600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>145200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>14200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>102800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-47700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>66800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>54600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>60800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>5000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>87000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>92200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-19100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-49700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>120100</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-44100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-70300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-71100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-67000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-38300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-84100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-32700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-31800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-17900</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-218400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>76500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-51100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-28200</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-1800</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>2100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-74800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-164600</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-101900</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E94" s="3">
         <v>49100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-66200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-70400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-66200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-18800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-73300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-32300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-29500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-17600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-29700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-25300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>185500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-35900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-85700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-57600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-49100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-27600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-98300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-47100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-31000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-27300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-86600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-26900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-41000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>16300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>139800</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-43000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7471,11 +7705,11 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-700</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -7483,31 +7717,34 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-29900</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-50200</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-600</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-282100</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-281700</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-400</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-15200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-135500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>58600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-26700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>306600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>144600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>17500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>148000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>60300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>21500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-8400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>30500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-67400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>11900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-324000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-311100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-107300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-102400</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>6300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-6100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>16300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-6000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-3600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-7600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>6200</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>3600</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-5000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-107300</v>
+      </c>
+      <c r="E102" s="3">
         <v>52400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-39400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-117800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>22600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-188900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>35500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-78000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-143800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-62500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>184200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>254900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>58600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-31300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>201300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-14300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-11800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-4600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>19300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>11600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-64600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>79100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-378900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-341400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>147700</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-45200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>CCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>637200</v>
+        <v>526800</v>
       </c>
       <c r="E8" s="3">
+        <v>968200</v>
+      </c>
+      <c r="F8" s="3">
         <v>545400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>709200</v>
       </c>
-      <c r="G8" s="3">
-        <v>602900</v>
-      </c>
       <c r="H8" s="3">
-        <v>643400</v>
+        <v>503300</v>
       </c>
       <c r="I8" s="3">
+        <v>948400</v>
+      </c>
+      <c r="J8" s="3">
         <v>525700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>742700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>596400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>531100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>370900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>541400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>447500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>314900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>550800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>745200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>653400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>698000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>587100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>747600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>663700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>712000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>598400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>728400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>644400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1215900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>544700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>722600</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>669200</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>346600</v>
+        <v>271400</v>
       </c>
       <c r="E9" s="3">
+        <v>518600</v>
+      </c>
+      <c r="F9" s="3">
         <v>344300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>349900</v>
       </c>
-      <c r="G9" s="3">
-        <v>323500</v>
-      </c>
       <c r="H9" s="3">
-        <v>331100</v>
+        <v>241300</v>
       </c>
       <c r="I9" s="3">
+        <v>479600</v>
+      </c>
+      <c r="J9" s="3">
         <v>321200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>355400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>316600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>297100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>282400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>300900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>289200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>253800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>350000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>383200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>358200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>363000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>347800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>374800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>361700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>372900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>361300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>370600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>357900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>681200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>329700</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>355800</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>362300</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>290600</v>
+        <v>255400</v>
       </c>
       <c r="E10" s="3">
+        <v>449600</v>
+      </c>
+      <c r="F10" s="3">
         <v>201100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>359300</v>
       </c>
-      <c r="G10" s="3">
-        <v>279400</v>
-      </c>
       <c r="H10" s="3">
-        <v>312300</v>
+        <v>262000</v>
       </c>
       <c r="I10" s="3">
+        <v>468800</v>
+      </c>
+      <c r="J10" s="3">
         <v>204500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>387300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>279800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>234000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>88500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>240500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>158300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>61100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>200800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>362000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>295200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>335000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>239300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>372800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>302000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>339100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>237100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>357800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>286500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>534700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>215000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>366800</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>307000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,186 +1282,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E14" s="3">
         <v>20200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>20200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>400</v>
+      </c>
+      <c r="I14" s="3">
+        <v>33400</v>
+      </c>
+      <c r="J14" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K14" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L14" s="3">
+        <v>18700</v>
+      </c>
+      <c r="M14" s="3">
+        <v>70300</v>
+      </c>
+      <c r="N14" s="3">
+        <v>177500</v>
+      </c>
+      <c r="O14" s="3">
+        <v>11300</v>
+      </c>
+      <c r="P14" s="3">
+        <v>41900</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>5400</v>
+      </c>
+      <c r="R14" s="3">
+        <v>130200</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>101600</v>
+      </c>
+      <c r="U14" s="3">
+        <v>5800</v>
+      </c>
+      <c r="V14" s="3">
+        <v>5500</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>7800</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>858200</v>
+      </c>
+      <c r="AB14" s="3">
         <v>1600</v>
       </c>
-      <c r="H14" s="3">
-        <v>24500</v>
-      </c>
-      <c r="I14" s="3">
-        <v>9500</v>
-      </c>
-      <c r="J14" s="3">
-        <v>3200</v>
-      </c>
-      <c r="K14" s="3">
-        <v>18700</v>
-      </c>
-      <c r="L14" s="3">
-        <v>70300</v>
-      </c>
-      <c r="M14" s="3">
-        <v>177500</v>
-      </c>
-      <c r="N14" s="3">
-        <v>11300</v>
-      </c>
-      <c r="O14" s="3">
-        <v>41900</v>
-      </c>
-      <c r="P14" s="3">
-        <v>5400</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>130200</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>101600</v>
-      </c>
-      <c r="T14" s="3">
-        <v>5800</v>
-      </c>
-      <c r="U14" s="3">
-        <v>5500</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>7800</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>858200</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>1600</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
       <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>71100</v>
+        <v>57700</v>
       </c>
       <c r="E15" s="3">
+        <v>128700</v>
+      </c>
+      <c r="F15" s="3">
         <v>73000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>75000</v>
       </c>
-      <c r="G15" s="3">
-        <v>57800</v>
-      </c>
       <c r="H15" s="3">
-        <v>60600</v>
+        <v>49900</v>
       </c>
       <c r="I15" s="3">
+        <v>102500</v>
+      </c>
+      <c r="J15" s="3">
         <v>60400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>63100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>65600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>62600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>61900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>65000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>62400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>66200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>75800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>77800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>76200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>80200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>75100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>74700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>77400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>82800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>84100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>89100</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>81100</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>155800</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>77500</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>86000</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>85800</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>582700</v>
+        <v>453500</v>
       </c>
       <c r="E17" s="3">
+        <v>925200</v>
+      </c>
+      <c r="F17" s="3">
         <v>479300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>605900</v>
       </c>
-      <c r="G17" s="3">
-        <v>541900</v>
-      </c>
       <c r="H17" s="3">
-        <v>572400</v>
+        <v>422700</v>
       </c>
       <c r="I17" s="3">
+        <v>861400</v>
+      </c>
+      <c r="J17" s="3">
         <v>529300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>596000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>547800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>569300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>646900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>524900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>528800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>383500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>715200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>631600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>702000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>621300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>583500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>631100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>612600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>618000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>608200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1487300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>616300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1108500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>524900</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>471700</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>608500</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>54500</v>
+        <v>73300</v>
       </c>
       <c r="E18" s="3">
+        <v>43000</v>
+      </c>
+      <c r="F18" s="3">
         <v>66100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>103300</v>
       </c>
-      <c r="G18" s="3">
-        <v>61000</v>
-      </c>
       <c r="H18" s="3">
-        <v>71000</v>
+        <v>80600</v>
       </c>
       <c r="I18" s="3">
+        <v>87000</v>
+      </c>
+      <c r="J18" s="3">
         <v>-3600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>146700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>48600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-38200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-276000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>16500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-81300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-68600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-164400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>113600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-48600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>76700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>116500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>51100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>94000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-9800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-758900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>28100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>107400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>19800</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>250900</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>60700</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,453 +1717,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>12400</v>
+        <v>-17300</v>
       </c>
       <c r="E20" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F20" s="3">
         <v>9000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>25000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-27900</v>
       </c>
-      <c r="H20" s="3">
-        <v>-26300</v>
-      </c>
       <c r="I20" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="J20" s="3">
         <v>-6000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>16700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-18900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>20000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-26800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-9200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-12900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-5800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-35400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>19600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>28400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>25700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>42600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>18200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-10400</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>138000</v>
+        <v>114100</v>
       </c>
       <c r="E21" s="3">
+        <v>208100</v>
+      </c>
+      <c r="F21" s="3">
         <v>148100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>220100</v>
       </c>
-      <c r="G21" s="3">
-        <v>91900</v>
-      </c>
       <c r="H21" s="3">
-        <v>127100</v>
+        <v>111400</v>
       </c>
       <c r="I21" s="3">
+        <v>197500</v>
+      </c>
+      <c r="J21" s="3">
         <v>50800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>213400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>102200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>28000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-88700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>98300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-12400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-107500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>211400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>147600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>78100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>178300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>122700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>141400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>93900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-641400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>134900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>305800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>115600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>326400</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>151700</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>105200</v>
+        <v>107400</v>
       </c>
       <c r="E22" s="3">
+        <v>207200</v>
+      </c>
+      <c r="F22" s="3">
         <v>102800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100400</v>
       </c>
-      <c r="G22" s="3">
-        <v>92900</v>
-      </c>
       <c r="H22" s="3">
-        <v>86600</v>
+        <v>92600</v>
       </c>
       <c r="I22" s="3">
+        <v>169100</v>
+      </c>
+      <c r="J22" s="3">
         <v>82800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>83200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>84300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>90200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>92700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>90800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>90600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>88700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>90100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>88600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>106800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>108000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>114900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>96700</v>
-      </c>
-      <c r="W22" s="3">
-        <v>96800</v>
       </c>
       <c r="X22" s="3">
         <v>96800</v>
       </c>
       <c r="Y22" s="3">
+        <v>96800</v>
+      </c>
+      <c r="Z22" s="3">
         <v>97300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>96900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>95500</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>187300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>92600</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>93100</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-38300</v>
+        <v>-51300</v>
       </c>
       <c r="E23" s="3">
+        <v>-143200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-27600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>27800</v>
       </c>
-      <c r="G23" s="3">
-        <v>-59700</v>
-      </c>
       <c r="H23" s="3">
-        <v>-41900</v>
+        <v>-39900</v>
       </c>
       <c r="I23" s="3">
+        <v>-114300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-92400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>67000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-47700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-124800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-362200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-57600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-165400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-161800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-273400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>45000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-182200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-40500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-111800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>6800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-51500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-38200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-87500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-827400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-41700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-37300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-54600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>147400</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-27400</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1800</v>
+        <v>-200</v>
       </c>
       <c r="E24" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="F24" s="3">
         <v>7800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-71600</v>
       </c>
-      <c r="G24" s="3">
-        <v>-21000</v>
-      </c>
       <c r="H24" s="3">
-        <v>23400</v>
+        <v>-21100</v>
       </c>
       <c r="I24" s="3">
+        <v>20700</v>
+      </c>
+      <c r="J24" s="3">
         <v>-2700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-28700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-25000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-29500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-19200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>15800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>30100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-29100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>57800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-24500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>6900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>45400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-65100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>16300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-3400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-21800</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>39100</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-36600</v>
+        <v>-51100</v>
       </c>
       <c r="E26" s="3">
+        <v>-131400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-35400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>99400</v>
       </c>
-      <c r="G26" s="3">
-        <v>-38800</v>
-      </c>
       <c r="H26" s="3">
-        <v>-65300</v>
+        <v>-18800</v>
       </c>
       <c r="I26" s="3">
+        <v>-135000</v>
+      </c>
+      <c r="J26" s="3">
         <v>-89700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>65500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-40800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-124400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-333500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-32600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-135800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-142600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-289200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>31600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-212400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-11400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-169600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>31300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-58400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-42900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-132800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-762300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-58000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-33900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-32700</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>108300</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-23800</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-37300</v>
+        <v>-51800</v>
       </c>
       <c r="E27" s="3">
+        <v>-131600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-34900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>98700</v>
       </c>
-      <c r="G27" s="3">
-        <v>-39800</v>
-      </c>
       <c r="H27" s="3">
-        <v>-65700</v>
+        <v>-19800</v>
       </c>
       <c r="I27" s="3">
+        <v>-135500</v>
+      </c>
+      <c r="J27" s="3">
         <v>-89900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>63900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-40800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-124600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-332400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-32100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-135900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-137200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-277500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>27100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-215300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-10900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-164200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>25700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-65100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-50400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-128400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-769900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-64200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-38300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-30700</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>101500</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,31 +2543,34 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-211700</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>59400</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-20000</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-20000</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2538,17 +2599,17 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2556,11 +2617,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>228000</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-12400</v>
+        <v>17300</v>
       </c>
       <c r="E32" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-9000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-25000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>27900</v>
       </c>
-      <c r="H32" s="3">
-        <v>26300</v>
-      </c>
       <c r="I32" s="3">
+        <v>32300</v>
+      </c>
+      <c r="J32" s="3">
         <v>6000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-16700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>18900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-20000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>26800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>9200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>12900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>5800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>35400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-19600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-28400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-25700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-42600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-18200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>10400</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-37300</v>
+        <v>-263500</v>
       </c>
       <c r="E33" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-34900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>98700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-39800</v>
       </c>
-      <c r="H33" s="3">
-        <v>-65700</v>
-      </c>
       <c r="I33" s="3">
+        <v>-155500</v>
+      </c>
+      <c r="J33" s="3">
         <v>-89900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>63900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-40800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-124600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-332400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-32100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-135900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-137200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-277500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>27100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-215300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-10900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-164200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>25700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-65100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-50400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-128400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-541900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-64200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-38300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-30700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>101500</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-37300</v>
+        <v>-263500</v>
       </c>
       <c r="E35" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-34900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>98700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-39800</v>
       </c>
-      <c r="H35" s="3">
-        <v>-65700</v>
-      </c>
       <c r="I35" s="3">
+        <v>-155500</v>
+      </c>
+      <c r="J35" s="3">
         <v>-89900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>63900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-40800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-124600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-332400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-32100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-135900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-137200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-277500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>27100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-215300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-10900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-164200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>25700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-65100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-50400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-128400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-541900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-64200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-38300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-30700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>101500</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>313400</v>
+      </c>
+      <c r="E41" s="3">
         <v>232900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>340000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>286800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>327400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>314600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>431900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>410800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>564000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>642200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>785300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>845000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>662100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>371800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>398900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>341800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>372500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>170500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>182500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>191100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>172300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>153200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>144100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>222400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>163100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>200600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>542000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>394300</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,97 +3536,103 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>441500</v>
+      </c>
+      <c r="E43" s="3">
         <v>525600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>523000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>619800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>551800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>584800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>534900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>643100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>537300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>489800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>358500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>468300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>430000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>369300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>506300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>709700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>662200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>656400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>636500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>706300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>654000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>638100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>635800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>659500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>633000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>633700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>560800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>593100</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>627900</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,186 +3720,195 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>115300</v>
+      </c>
+      <c r="E45" s="3">
         <v>133300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>105900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>214300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>91900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>83100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>82500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>80600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>83100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>87100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>87000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>81100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>80000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>87300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>771500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>93300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>90900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>99800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>91900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>127000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>158300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>194000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>214600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>170600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>193800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>167500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>203200</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>206400</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>260700</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>870200</v>
+      </c>
+      <c r="E46" s="3">
         <v>891800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>968800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1120900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>971100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>982500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1049300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1134500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1220400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1140900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1087700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1334800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1354900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1118700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1649600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1201900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1094900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1128700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>899000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1015800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1003500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1004300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1003700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>974200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1049200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>964200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>964600</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1341400</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>1282800</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3859,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="U47" s="3">
-        <v>154800</v>
+        <v>0</v>
       </c>
       <c r="V47" s="3">
         <v>154800</v>
@@ -3874,11 +3979,11 @@
         <v>154800</v>
       </c>
       <c r="Z47" s="3">
+        <v>154800</v>
+      </c>
+      <c r="AA47" s="3">
         <v>212000</v>
       </c>
-      <c r="AA47" s="3">
-        <v>0</v>
-      </c>
       <c r="AB47" s="3">
         <v>0</v>
       </c>
@@ -3891,186 +3996,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2084100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2215300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2292100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2267200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2277700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2338700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2373000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2394700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2388300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2450900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2462000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2521500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2550700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2522400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2565800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3096600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3071100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3196500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3249000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1288900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1256000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1288700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1365100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1395000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1380400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1410300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1398800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1412800</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>1493300</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1573400</v>
+      </c>
+      <c r="E49" s="3">
         <v>1599300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1612100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1624800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1660000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1652000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1675000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1687800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1688200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1695500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1698100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1828900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1824100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1849200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1850000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1996700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1986600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2003500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1923200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1930000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1937200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1948400</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>1965100</v>
       </c>
       <c r="Z49" s="3">
         <v>1965100</v>
       </c>
       <c r="AA49" s="3">
+        <v>1965100</v>
+      </c>
+      <c r="AB49" s="3">
         <v>1972900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1989000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1983200</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>1956800</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>2011700</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>121200</v>
+      </c>
+      <c r="E52" s="3">
         <v>133400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>75900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>73100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>78100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>81000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>83700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>82300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>68500</v>
-      </c>
-      <c r="L52" s="3">
-        <v>69100</v>
       </c>
       <c r="M52" s="3">
         <v>69100</v>
       </c>
       <c r="N52" s="3">
+        <v>69100</v>
+      </c>
+      <c r="O52" s="3">
         <v>70100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>71700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>73600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>59000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>98100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>114600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>99200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>99700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>132500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>128000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>124800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>126900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>124500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1178000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1053100</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1039800</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1007700</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>887800</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4648900</v>
+      </c>
+      <c r="E54" s="3">
         <v>4839700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4948900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5086000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4987000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5054200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5181000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5299400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5365300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5356300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5316800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5755300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5801500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5563800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6124400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6393300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6267100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6428000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6325600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4522000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4479400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4521100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4615500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4670800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5580500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>5416600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>5386400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>5718800</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>5675600</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,141 +4710,145 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E57" s="3">
         <v>76500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>86500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>101600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>76500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>90400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>96800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>108600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>99200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>101900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>96600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>101200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>107800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>112500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>129600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>94600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>103000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>109600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>105000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>113700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>99300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>105400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>120600</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>88000</v>
       </c>
       <c r="AA57" s="3">
         <v>88000</v>
       </c>
       <c r="AB57" s="3">
+        <v>88000</v>
+      </c>
+      <c r="AC57" s="3">
         <v>74200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>70600</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>86900</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
         <v>29100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>27000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>25200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>21000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>21100</v>
       </c>
       <c r="I58" s="3">
         <v>21100</v>
       </c>
       <c r="J58" s="3">
-        <v>21200</v>
+        <v>21100</v>
       </c>
       <c r="K58" s="3">
         <v>21200</v>
       </c>
       <c r="L58" s="3">
+        <v>21200</v>
+      </c>
+      <c r="M58" s="3">
         <v>21300</v>
-      </c>
-      <c r="M58" s="3">
-        <v>21400</v>
       </c>
       <c r="N58" s="3">
         <v>21400</v>
       </c>
       <c r="O58" s="3">
+        <v>21400</v>
+      </c>
+      <c r="P58" s="3">
         <v>21500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>20700</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>20300</v>
       </c>
       <c r="R58" s="3">
         <v>20300</v>
@@ -4723,399 +4857,414 @@
         <v>20300</v>
       </c>
       <c r="T58" s="3">
+        <v>20300</v>
+      </c>
+      <c r="U58" s="3">
         <v>300</v>
-      </c>
-      <c r="U58" s="3">
-        <v>200</v>
       </c>
       <c r="V58" s="3">
         <v>200</v>
       </c>
       <c r="W58" s="3">
+        <v>200</v>
+      </c>
+      <c r="X58" s="3">
         <v>300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>9500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>6700</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>7000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>977400</v>
+      </c>
+      <c r="E59" s="3">
         <v>859400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>903700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>994700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>929700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>905200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>975100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>983200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>989200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>917700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>891400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>967700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>923200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>884100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1162100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1065600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>982200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1009300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>940900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>615900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>619100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>593200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>612800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>569000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>623000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>552700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>547400</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>547900</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>586000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1033200</v>
+      </c>
+      <c r="E60" s="3">
         <v>965000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1017100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1121500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1027300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1016700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1093000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1112900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1109600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1040900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1009400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1090200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1052500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1017300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1312000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1180500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1105500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1119200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1046100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>729800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>718800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>699000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>733900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>657500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>711600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>636300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>624700</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>641700</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>666800</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5628700</v>
+      </c>
+      <c r="E61" s="3">
         <v>5561900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5564900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5568800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5571200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5575800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5579800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5583800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5716700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5720400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5604300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5550900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5573900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5257100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5257000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5108600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5111700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5341000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5293400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5277100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5274500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5272100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5270900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5266200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>5264300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>5109700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>5112900</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>5110000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>5108300</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1649600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1718200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1700700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1658500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1761300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1804000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1783100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1796600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1826800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1847200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1833800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1896800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1914000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1897300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1918900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2158800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2150100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2182700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2241900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>616800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>626100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>628900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>604400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>605400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>888800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>887100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>883400</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>898000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>895600</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8322700</v>
+      </c>
+      <c r="E66" s="3">
         <v>8255700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8295200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8361700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8372000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8407700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8467000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8504400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8662900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8618300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8457100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8548700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8551800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8183100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8626700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8600800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8512400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8788400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8736500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6784000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6772600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6752000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6767200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6686100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>7017000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>6784400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>6766000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>6799600</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>6853800</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6805700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6542200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6504900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6470000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6568600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6528900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6463200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6373300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6437300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6396500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6271900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5939500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5907400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5771500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5634300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5349600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5376700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5161400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5150500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-5000900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-5026600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-4961500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-4892400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-4781200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-4221200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-4159600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-4154800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-4125800</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-4228700</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3673800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3416000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3346300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3275700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3385000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3353500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3285900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3205000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3297500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3262000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3140300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2793500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2750300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2619300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2502300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2207500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2245200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2360500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2410900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2262000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-2293200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-2230900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-2151700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-2015300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-1436500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-1367800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-1379700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-1080800</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>-1178200</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-37300</v>
+        <v>-263500</v>
       </c>
       <c r="E81" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-34900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>98700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-39800</v>
       </c>
-      <c r="H81" s="3">
-        <v>-65700</v>
-      </c>
       <c r="I81" s="3">
+        <v>-155500</v>
+      </c>
+      <c r="J81" s="3">
         <v>-89900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>63900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-40800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-124600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-332400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-32100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-135900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-137200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-277500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>27100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-215300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-10900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-164200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>25700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-65100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-50400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-128400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-541900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-64200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-38300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-30700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>101500</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-31100</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>71100</v>
+        <v>58000</v>
       </c>
       <c r="E83" s="3">
+        <v>144100</v>
+      </c>
+      <c r="F83" s="3">
         <v>73000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>91800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>58700</v>
       </c>
-      <c r="H83" s="3">
-        <v>82400</v>
-      </c>
       <c r="I83" s="3">
+        <v>142800</v>
+      </c>
+      <c r="J83" s="3">
         <v>60400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>63100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>65600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>62600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>180800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>65000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>62400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>66200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>75800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>77800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>76200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>80200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>75100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>74700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>77400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>82800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>84100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>89100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>81100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>155800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>77500</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>86000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>85800</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-65300</v>
+        <v>52900</v>
       </c>
       <c r="E89" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="F89" s="3">
         <v>10900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>26000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>94700</v>
       </c>
-      <c r="H89" s="3">
-        <v>-30200</v>
-      </c>
       <c r="I89" s="3">
+        <v>19200</v>
+      </c>
+      <c r="J89" s="3">
         <v>49500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>20800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>78000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-107900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-124300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-22400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-91000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>74200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-98600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>145200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>14200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>102800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-47700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>66800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>54600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>60800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>5000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>87000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>92200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-19100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-49700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>120100</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-42600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-44100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-70300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-71100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-67000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-38300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-84100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-32700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-31800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-17900</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-218400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>76500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-51100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-28200</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-1800</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>2100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-74800</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-164600</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-101900</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-35700</v>
+        <v>-35900</v>
       </c>
       <c r="E94" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F94" s="3">
         <v>49100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-66200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-70400</v>
       </c>
-      <c r="H94" s="3">
-        <v>-66200</v>
-      </c>
       <c r="I94" s="3">
+        <v>-85100</v>
+      </c>
+      <c r="J94" s="3">
         <v>-18800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-73300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-32300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-29500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-17600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-29700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-25300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>185500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-35900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-85700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-57600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-49100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-27600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-98300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-47100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-31000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-27300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-86600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-26900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-41000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>16300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>139800</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-43000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7708,11 +7942,11 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-700</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -7720,31 +7954,34 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-700</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-29900</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-50200</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-600</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-282100</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-281700</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-400</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10300</v>
+        <v>66000</v>
       </c>
       <c r="E100" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-8700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6200</v>
       </c>
-      <c r="H100" s="3">
-        <v>-15200</v>
-      </c>
       <c r="I100" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="J100" s="3">
         <v>-5800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-135500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>58600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-26700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>306600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>144600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>17500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>148000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>60300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>21500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-8400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>30500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-67400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>11900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-324000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-311100</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-107300</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-102400</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4000</v>
+        <v>-2000</v>
       </c>
       <c r="E101" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F101" s="3">
         <v>1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>6300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4800</v>
       </c>
-      <c r="H101" s="3">
-        <v>-6100</v>
-      </c>
       <c r="I101" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="J101" s="3">
         <v>-2300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>16300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-6000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-8700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-5400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-3600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>3300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>2400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>6200</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>3600</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-5000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-107300</v>
+        <v>80900</v>
       </c>
       <c r="E102" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="F102" s="3">
         <v>52400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-39400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13300</v>
       </c>
-      <c r="H102" s="3">
-        <v>-117800</v>
-      </c>
       <c r="I102" s="3">
+        <v>-95100</v>
+      </c>
+      <c r="J102" s="3">
         <v>22600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-188900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>35500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-78000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-143800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-62500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>184200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>254900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>58600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-31300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>201300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-14300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-11800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-4600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>19300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>11600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-64600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>79100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-378900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-341400</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>147700</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-45200</v>
       </c>
     </row>
